--- a/BackTest/2019-10-07 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-07 BackTest VALOR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>49</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>8.333333333333332</v>
+      </c>
       <c r="L12" t="n">
         <v>727.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>55</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-1.886792452830189</v>
+      </c>
       <c r="L13" t="n">
         <v>727.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>63</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-3.703703703703703</v>
+      </c>
       <c r="L14" t="n">
         <v>726.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>66</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20.83333333333334</v>
+      </c>
       <c r="L15" t="n">
         <v>726.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>66</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.08695652173913</v>
+      </c>
       <c r="L16" t="n">
         <v>727.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>72</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>37.25490196078432</v>
+      </c>
       <c r="L17" t="n">
         <v>729.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>77</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>48.14814814814815</v>
+      </c>
       <c r="L18" t="n">
         <v>731.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>88</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1.96078431372549</v>
+      </c>
       <c r="L19" t="n">
         <v>733.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>98</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>10.71428571428571</v>
+      </c>
       <c r="L20" t="n">
         <v>734.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>98</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-2.040816326530612</v>
+      </c>
       <c r="L21" t="n">
         <v>735</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>98</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.62790697674419</v>
+      </c>
       <c r="L22" t="n">
         <v>734.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>-8.256880733944955</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L23" t="n">
         <v>734.2</v>
@@ -1466,7 +1488,7 @@
         <v>111</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.422018348623854</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L24" t="n">
         <v>734.4</v>
@@ -1515,7 +1537,7 @@
         <v>112</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9708737864077669</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>734.4</v>
@@ -1564,7 +1586,7 @@
         <v>141</v>
       </c>
       <c r="K26" t="n">
-        <v>31.70731707317073</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>737.3</v>
@@ -1613,7 +1635,7 @@
         <v>142</v>
       </c>
       <c r="K27" t="n">
-        <v>34.42622950819672</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="L27" t="n">
         <v>739.7</v>
@@ -1662,7 +1684,7 @@
         <v>142</v>
       </c>
       <c r="K28" t="n">
-        <v>35.53719008264463</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L28" t="n">
         <v>741.6</v>
@@ -1711,7 +1733,7 @@
         <v>156</v>
       </c>
       <c r="K29" t="n">
-        <v>23.30827067669173</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L29" t="n">
         <v>743.2</v>
@@ -1760,7 +1782,7 @@
         <v>156</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L30" t="n">
         <v>743.8</v>
@@ -1809,7 +1831,7 @@
         <v>157</v>
       </c>
       <c r="K31" t="n">
-        <v>9.565217391304348</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L31" t="n">
         <v>744.3</v>
@@ -1860,7 +1882,7 @@
         <v>158</v>
       </c>
       <c r="K32" t="n">
-        <v>4.587155963302752</v>
+        <v>37.5</v>
       </c>
       <c r="L32" t="n">
         <v>744.9</v>
@@ -1911,7 +1933,7 @@
         <v>166</v>
       </c>
       <c r="K33" t="n">
-        <v>2.702702702702703</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L33" t="n">
         <v>745.9</v>
@@ -1962,7 +1984,7 @@
         <v>167</v>
       </c>
       <c r="K34" t="n">
-        <v>9.615384615384617</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L34" t="n">
         <v>746.7</v>
@@ -2013,7 +2035,7 @@
         <v>168</v>
       </c>
       <c r="K35" t="n">
-        <v>5.88235294117647</v>
+        <v>-85.18518518518519</v>
       </c>
       <c r="L35" t="n">
         <v>747.3</v>
@@ -2064,7 +2086,7 @@
         <v>176</v>
       </c>
       <c r="K36" t="n">
-        <v>12.72727272727273</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L36" t="n">
         <v>745.8</v>
@@ -2115,7 +2137,7 @@
         <v>178</v>
       </c>
       <c r="K37" t="n">
-        <v>5.660377358490567</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>744</v>
@@ -2166,7 +2188,7 @@
         <v>179</v>
       </c>
       <c r="K38" t="n">
-        <v>1.96078431372549</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L38" t="n">
         <v>742.3</v>
@@ -2217,7 +2239,7 @@
         <v>200</v>
       </c>
       <c r="K39" t="n">
-        <v>30.35714285714285</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="L39" t="n">
         <v>744.1</v>
@@ -2268,7 +2290,7 @@
         <v>227</v>
       </c>
       <c r="K40" t="n">
-        <v>39.53488372093023</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L40" t="n">
         <v>748.6</v>
@@ -2319,7 +2341,7 @@
         <v>229</v>
       </c>
       <c r="K41" t="n">
-        <v>40.45801526717558</v>
+        <v>66.19718309859155</v>
       </c>
       <c r="L41" t="n">
         <v>753.4</v>
@@ -2370,7 +2392,7 @@
         <v>245</v>
       </c>
       <c r="K42" t="n">
-        <v>25.17006802721088</v>
+        <v>49.36708860759494</v>
       </c>
       <c r="L42" t="n">
         <v>756.5</v>
@@ -2421,7 +2443,7 @@
         <v>256</v>
       </c>
       <c r="K43" t="n">
-        <v>41.0958904109589</v>
+        <v>57.30337078651685</v>
       </c>
       <c r="L43" t="n">
         <v>761.5</v>
@@ -2472,7 +2494,7 @@
         <v>267</v>
       </c>
       <c r="K44" t="n">
-        <v>30.76923076923077</v>
+        <v>41.41414141414141</v>
       </c>
       <c r="L44" t="n">
         <v>765.5</v>
@@ -2523,7 +2545,7 @@
         <v>267</v>
       </c>
       <c r="K45" t="n">
-        <v>30.32258064516129</v>
+        <v>36.26373626373626</v>
       </c>
       <c r="L45" t="n">
         <v>769.6</v>
@@ -2574,7 +2596,7 @@
         <v>278</v>
       </c>
       <c r="K46" t="n">
-        <v>21.16788321167883</v>
+        <v>46</v>
       </c>
       <c r="L46" t="n">
         <v>774</v>
@@ -2625,7 +2647,7 @@
         <v>286</v>
       </c>
       <c r="K47" t="n">
-        <v>13.88888888888889</v>
+        <v>34.57943925233645</v>
       </c>
       <c r="L47" t="n">
         <v>777.8</v>
@@ -2676,7 +2698,7 @@
         <v>315</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.202312138728324</v>
+        <v>-11.30434782608696</v>
       </c>
       <c r="L48" t="n">
         <v>778.6</v>
@@ -2727,7 +2749,7 @@
         <v>335</v>
       </c>
       <c r="K49" t="n">
-        <v>13.96648044692737</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L49" t="n">
         <v>779.3</v>
@@ -2778,7 +2800,7 @@
         <v>341</v>
       </c>
       <c r="K50" t="n">
-        <v>16.75675675675676</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>777.9</v>
@@ -2829,7 +2851,7 @@
         <v>367</v>
       </c>
       <c r="K51" t="n">
-        <v>2.857142857142857</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L51" t="n">
         <v>773.7</v>
@@ -2880,7 +2902,7 @@
         <v>393</v>
       </c>
       <c r="K52" t="n">
-        <v>13.19148936170213</v>
+        <v>-8.02919708029197</v>
       </c>
       <c r="L52" t="n">
         <v>773.7</v>
@@ -2931,7 +2953,7 @@
         <v>408</v>
       </c>
       <c r="K53" t="n">
-        <v>9.917355371900827</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L53" t="n">
         <v>771.1</v>
@@ -2982,7 +3004,7 @@
         <v>416</v>
       </c>
       <c r="K54" t="n">
-        <v>13.25301204819277</v>
+        <v>-4.697986577181208</v>
       </c>
       <c r="L54" t="n">
         <v>770.4</v>
@@ -3033,7 +3055,7 @@
         <v>436</v>
       </c>
       <c r="K55" t="n">
-        <v>5.223880597014925</v>
+        <v>-24.05063291139241</v>
       </c>
       <c r="L55" t="n">
         <v>767.7</v>
@@ -3084,7 +3106,7 @@
         <v>444</v>
       </c>
       <c r="K56" t="n">
-        <v>5.223880597014925</v>
+        <v>-13.92405063291139</v>
       </c>
       <c r="L56" t="n">
         <v>764.7</v>
@@ -3135,7 +3157,7 @@
         <v>446</v>
       </c>
       <c r="K57" t="n">
-        <v>6.716417910447761</v>
+        <v>6.870229007633588</v>
       </c>
       <c r="L57" t="n">
         <v>762.7</v>
@@ -3186,7 +3208,7 @@
         <v>447</v>
       </c>
       <c r="K58" t="n">
-        <v>5.970149253731343</v>
+        <v>-10.71428571428571</v>
       </c>
       <c r="L58" t="n">
         <v>763.5</v>
@@ -3237,7 +3259,7 @@
         <v>448</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.612903225806452</v>
+        <v>-15.88785046728972</v>
       </c>
       <c r="L59" t="n">
         <v>762.4</v>
@@ -3288,7 +3310,7 @@
         <v>464</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.329113924050633</v>
+        <v>25.77319587628866</v>
       </c>
       <c r="L60" t="n">
         <v>762.3</v>
@@ -3339,7 +3361,7 @@
         <v>468</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.786610878661087</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>764.4</v>
@@ -3390,7 +3412,7 @@
         <v>472</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.4405286343612335</v>
+        <v>21.875</v>
       </c>
       <c r="L62" t="n">
         <v>764.3</v>
@@ -3441,7 +3463,7 @@
         <v>480</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.928571428571429</v>
+        <v>-3.125</v>
       </c>
       <c r="L63" t="n">
         <v>764.9</v>
@@ -3492,7 +3514,7 @@
         <v>488</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.4524886877828055</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
         <v>765.5</v>
@@ -3543,7 +3565,7 @@
         <v>492</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.222222222222222</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>767.7</v>
@@ -3594,7 +3616,7 @@
         <v>520</v>
       </c>
       <c r="K66" t="n">
-        <v>4.958677685950414</v>
+        <v>54.05405405405406</v>
       </c>
       <c r="L66" t="n">
         <v>771.9</v>
@@ -3645,7 +3667,7 @@
         <v>528</v>
       </c>
       <c r="K67" t="n">
-        <v>11.5702479338843</v>
+        <v>60.49382716049383</v>
       </c>
       <c r="L67" t="n">
         <v>776.7</v>
@@ -3696,7 +3718,7 @@
         <v>547</v>
       </c>
       <c r="K68" t="n">
-        <v>32.75862068965517</v>
+        <v>67.67676767676768</v>
       </c>
       <c r="L68" t="n">
         <v>783.5</v>
@@ -3747,7 +3769,7 @@
         <v>580</v>
       </c>
       <c r="K69" t="n">
-        <v>9.387755102040817</v>
+        <v>15.51724137931035</v>
       </c>
       <c r="L69" t="n">
         <v>786.9</v>
@@ -3798,7 +3820,7 @@
         <v>594</v>
       </c>
       <c r="K70" t="n">
-        <v>12.25296442687747</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>790.1</v>
@@ -3849,7 +3871,7 @@
         <v>596</v>
       </c>
       <c r="K71" t="n">
-        <v>24.0174672489083</v>
+        <v>24.19354838709678</v>
       </c>
       <c r="L71" t="n">
         <v>793.5</v>
@@ -3900,7 +3922,7 @@
         <v>603</v>
       </c>
       <c r="K72" t="n">
-        <v>10.47619047619048</v>
+        <v>25.20325203252033</v>
       </c>
       <c r="L72" t="n">
         <v>795.8</v>
@@ -3951,7 +3973,7 @@
         <v>620</v>
       </c>
       <c r="K73" t="n">
-        <v>9.433962264150944</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L73" t="n">
         <v>797.2</v>
@@ -4002,7 +4024,7 @@
         <v>620</v>
       </c>
       <c r="K74" t="n">
-        <v>5.88235294117647</v>
+        <v>7.8125</v>
       </c>
       <c r="L74" t="n">
         <v>797.8</v>
@@ -4053,7 +4075,7 @@
         <v>633</v>
       </c>
       <c r="K75" t="n">
-        <v>22.84263959390863</v>
+        <v>-4.424778761061947</v>
       </c>
       <c r="L75" t="n">
         <v>800.1</v>
@@ -4104,7 +4126,7 @@
         <v>637</v>
       </c>
       <c r="K76" t="n">
-        <v>21.24352331606218</v>
+        <v>-8.256880733944955</v>
       </c>
       <c r="L76" t="n">
         <v>800</v>
@@ -4155,7 +4177,7 @@
         <v>641</v>
       </c>
       <c r="K77" t="n">
-        <v>17.94871794871795</v>
+        <v>-34.04255319148936</v>
       </c>
       <c r="L77" t="n">
         <v>798.7</v>
@@ -4206,7 +4228,7 @@
         <v>645</v>
       </c>
       <c r="K78" t="n">
-        <v>16.16161616161616</v>
+        <v>-4.615384615384616</v>
       </c>
       <c r="L78" t="n">
         <v>795.1</v>
@@ -4257,7 +4279,7 @@
         <v>653</v>
       </c>
       <c r="K79" t="n">
-        <v>19.02439024390244</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L79" t="n">
         <v>795.6</v>
@@ -4308,7 +4330,7 @@
         <v>653</v>
       </c>
       <c r="K80" t="n">
-        <v>12.16931216931217</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L80" t="n">
         <v>794.7</v>
@@ -4359,7 +4381,7 @@
         <v>654</v>
       </c>
       <c r="K81" t="n">
-        <v>13.97849462365591</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L81" t="n">
         <v>793.9</v>
@@ -4410,7 +4432,7 @@
         <v>654</v>
       </c>
       <c r="K82" t="n">
-        <v>12.08791208791209</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L82" t="n">
         <v>793.8</v>
@@ -4461,7 +4483,7 @@
         <v>657</v>
       </c>
       <c r="K83" t="n">
-        <v>18.64406779661017</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L83" t="n">
         <v>795.7</v>
@@ -4512,7 +4534,7 @@
         <v>660</v>
       </c>
       <c r="K84" t="n">
-        <v>16.27906976744186</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>797.9</v>
@@ -4563,7 +4585,7 @@
         <v>660</v>
       </c>
       <c r="K85" t="n">
-        <v>19.04761904761905</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L85" t="n">
         <v>798.8</v>
@@ -4614,7 +4636,7 @@
         <v>665</v>
       </c>
       <c r="K86" t="n">
-        <v>6.206896551724138</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L86" t="n">
         <v>799.8</v>
@@ -4665,7 +4687,7 @@
         <v>667</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.7194244604316548</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L87" t="n">
         <v>801</v>
@@ -4716,7 +4738,7 @@
         <v>670</v>
       </c>
       <c r="K88" t="n">
-        <v>-18.69918699186992</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L88" t="n">
         <v>802.3</v>
@@ -4767,7 +4789,7 @@
         <v>670</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L89" t="n">
         <v>802.8</v>
@@ -4818,7 +4840,7 @@
         <v>683</v>
       </c>
       <c r="K90" t="n">
-        <v>-19.10112359550562</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L90" t="n">
         <v>802</v>
@@ -4869,7 +4891,7 @@
         <v>684</v>
       </c>
       <c r="K91" t="n">
-        <v>-18.18181818181818</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L91" t="n">
         <v>801.2</v>
@@ -4920,7 +4942,7 @@
         <v>690</v>
       </c>
       <c r="K92" t="n">
-        <v>-17.24137931034483</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L92" t="n">
         <v>799.8</v>
@@ -4971,7 +4993,7 @@
         <v>706</v>
       </c>
       <c r="K93" t="n">
-        <v>-16.27906976744186</v>
+        <v>-78.26086956521739</v>
       </c>
       <c r="L93" t="n">
         <v>796.5</v>
@@ -5022,7 +5044,7 @@
         <v>737</v>
       </c>
       <c r="K94" t="n">
-        <v>14.52991452991453</v>
+        <v>-6.493506493506493</v>
       </c>
       <c r="L94" t="n">
         <v>796</v>
@@ -5073,7 +5095,7 @@
         <v>741</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L95" t="n">
         <v>795.1</v>
@@ -5124,7 +5146,7 @@
         <v>762</v>
       </c>
       <c r="K96" t="n">
-        <v>-20</v>
+        <v>-34.73684210526316</v>
       </c>
       <c r="L96" t="n">
         <v>791.6</v>
@@ -5175,7 +5197,7 @@
         <v>771</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.230769230769232</v>
+        <v>-20.79207920792079</v>
       </c>
       <c r="L97" t="n">
         <v>789.2</v>
@@ -5226,7 +5248,7 @@
         <v>772</v>
       </c>
       <c r="K98" t="n">
-        <v>-7.086614173228346</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L98" t="n">
         <v>787</v>
@@ -5277,7 +5299,7 @@
         <v>775</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.47540983606557</v>
+        <v>-6.521739130434782</v>
       </c>
       <c r="L99" t="n">
         <v>785.1</v>
@@ -5328,7 +5350,7 @@
         <v>785</v>
       </c>
       <c r="K100" t="n">
-        <v>-3.03030303030303</v>
+        <v>4.95049504950495</v>
       </c>
       <c r="L100" t="n">
         <v>785.5</v>
@@ -5379,7 +5401,7 @@
         <v>788</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.477611940298507</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="L101" t="n">
         <v>785.7</v>
@@ -5430,7 +5452,7 @@
         <v>798</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.11111111111111</v>
+        <v>15.21739130434783</v>
       </c>
       <c r="L102" t="n">
         <v>785.5</v>
@@ -5481,7 +5503,7 @@
         <v>808</v>
       </c>
       <c r="K103" t="n">
-        <v>-5.960264900662252</v>
+        <v>-9.859154929577464</v>
       </c>
       <c r="L103" t="n">
         <v>787.9</v>
@@ -5532,7 +5554,7 @@
         <v>820</v>
       </c>
       <c r="K104" t="n">
-        <v>-15</v>
+        <v>-18.9873417721519</v>
       </c>
       <c r="L104" t="n">
         <v>786</v>
@@ -5583,7 +5605,7 @@
         <v>820</v>
       </c>
       <c r="K105" t="n">
-        <v>-15</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L105" t="n">
         <v>784.5</v>
@@ -5634,7 +5656,7 @@
         <v>827</v>
       </c>
       <c r="K106" t="n">
-        <v>-13.58024691358025</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L106" t="n">
         <v>785.8</v>
@@ -5685,7 +5707,7 @@
         <v>833</v>
       </c>
       <c r="K107" t="n">
-        <v>-15.66265060240964</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L107" t="n">
         <v>785.6</v>
@@ -5736,7 +5758,7 @@
         <v>834</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.63414634146341</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L108" t="n">
         <v>785.4</v>
@@ -5787,7 +5809,7 @@
         <v>834</v>
       </c>
       <c r="K109" t="n">
-        <v>-14.63414634146341</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L109" t="n">
         <v>784.9</v>
@@ -5838,7 +5860,7 @@
         <v>838</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.67741935483871</v>
+        <v>-32</v>
       </c>
       <c r="L110" t="n">
         <v>783</v>
@@ -5889,7 +5911,7 @@
         <v>841</v>
       </c>
       <c r="K111" t="n">
-        <v>-7.006369426751593</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L111" t="n">
         <v>781.7</v>
@@ -5940,7 +5962,7 @@
         <v>843</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.57516339869281</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L112" t="n">
         <v>781.2</v>
@@ -5991,7 +6013,7 @@
         <v>844</v>
       </c>
       <c r="K113" t="n">
-        <v>7.246376811594203</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L113" t="n">
         <v>779.8</v>
@@ -6042,7 +6064,7 @@
         <v>847</v>
       </c>
       <c r="K114" t="n">
-        <v>-16.36363636363636</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L114" t="n">
         <v>779.9</v>
@@ -6093,7 +6115,7 @@
         <v>852</v>
       </c>
       <c r="K115" t="n">
-        <v>-17.11711711711712</v>
+        <v>-44</v>
       </c>
       <c r="L115" t="n">
         <v>779.5</v>
@@ -6144,7 +6166,7 @@
         <v>853</v>
       </c>
       <c r="K116" t="n">
-        <v>1.098901098901099</v>
+        <v>-30</v>
       </c>
       <c r="L116" t="n">
         <v>778.3</v>
@@ -6195,7 +6217,7 @@
         <v>856</v>
       </c>
       <c r="K117" t="n">
-        <v>-12.94117647058824</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L117" t="n">
         <v>777.4</v>
@@ -6246,7 +6268,7 @@
         <v>856</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.9047619047619</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L118" t="n">
         <v>776.6</v>
@@ -6297,7 +6319,7 @@
         <v>856</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.04938271604938</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L119" t="n">
         <v>775.8</v>
@@ -6348,7 +6370,7 @@
         <v>858</v>
       </c>
       <c r="K120" t="n">
-        <v>-34.24657534246575</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L120" t="n">
         <v>775.2</v>
@@ -6399,7 +6421,7 @@
         <v>858</v>
       </c>
       <c r="K121" t="n">
-        <v>-31.42857142857143</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>774.3</v>
@@ -6450,7 +6472,7 @@
         <v>862</v>
       </c>
       <c r="K122" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L122" t="n">
         <v>773.2</v>
@@ -6501,7 +6523,7 @@
         <v>876</v>
       </c>
       <c r="K123" t="n">
-        <v>-58.82352941176471</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>770.6</v>
@@ -6552,7 +6574,7 @@
         <v>876</v>
       </c>
       <c r="K124" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>767.7</v>
@@ -6603,7 +6625,7 @@
         <v>876</v>
       </c>
       <c r="K125" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>765.3</v>
@@ -6654,7 +6676,7 @@
         <v>876</v>
       </c>
       <c r="K126" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>763</v>
@@ -6705,7 +6727,7 @@
         <v>885</v>
       </c>
       <c r="K127" t="n">
-        <v>-38.46153846153847</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L127" t="n">
         <v>761.9</v>
@@ -6756,7 +6778,7 @@
         <v>912</v>
       </c>
       <c r="K128" t="n">
-        <v>10.25641025641026</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L128" t="n">
         <v>763.5</v>
@@ -6807,7 +6829,7 @@
         <v>918</v>
       </c>
       <c r="K129" t="n">
-        <v>2.380952380952381</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>764.5</v>
@@ -6858,7 +6880,7 @@
         <v>932</v>
       </c>
       <c r="K130" t="n">
-        <v>-8.51063829787234</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L130" t="n">
         <v>764.3</v>
@@ -6909,7 +6931,7 @@
         <v>934</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.67741935483871</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L131" t="n">
         <v>764.3</v>
@@ -6960,7 +6982,7 @@
         <v>934</v>
       </c>
       <c r="K132" t="n">
-        <v>-7.692307692307693</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L132" t="n">
         <v>764.7</v>
@@ -7011,7 +7033,7 @@
         <v>943</v>
       </c>
       <c r="K133" t="n">
-        <v>1.01010101010101</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="L133" t="n">
         <v>767.4</v>
@@ -7062,7 +7084,7 @@
         <v>946</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.05050505050505</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>769.8</v>
@@ -7113,7 +7135,7 @@
         <v>955</v>
       </c>
       <c r="K135" t="n">
-        <v>-8.737864077669903</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="L135" t="n">
         <v>771.3</v>
@@ -7164,7 +7186,7 @@
         <v>960</v>
       </c>
       <c r="K136" t="n">
-        <v>-12.14953271028037</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>772.3</v>
@@ -7215,7 +7237,7 @@
         <v>967</v>
       </c>
       <c r="K137" t="n">
-        <v>-15.31531531531531</v>
+        <v>-60</v>
       </c>
       <c r="L137" t="n">
         <v>771.7</v>
@@ -7266,7 +7288,7 @@
         <v>968</v>
       </c>
       <c r="K138" t="n">
-        <v>-16.07142857142857</v>
+        <v>-56.00000000000001</v>
       </c>
       <c r="L138" t="n">
         <v>768.3</v>
@@ -7317,7 +7339,7 @@
         <v>975</v>
       </c>
       <c r="K139" t="n">
-        <v>-21.00840336134454</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L139" t="n">
         <v>764.8</v>
@@ -7368,7 +7390,7 @@
         <v>975</v>
       </c>
       <c r="K140" t="n">
-        <v>-19.65811965811966</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L140" t="n">
         <v>762.7</v>
@@ -7419,7 +7441,7 @@
         <v>1000</v>
       </c>
       <c r="K141" t="n">
-        <v>1.408450704225352</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L141" t="n">
         <v>762.9</v>
@@ -7470,7 +7492,7 @@
         <v>1003</v>
       </c>
       <c r="K142" t="n">
-        <v>6.382978723404255</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L142" t="n">
         <v>763.4</v>
@@ -7521,7 +7543,7 @@
         <v>1013</v>
       </c>
       <c r="K143" t="n">
-        <v>9.48905109489051</v>
+        <v>-16.41791044776119</v>
       </c>
       <c r="L143" t="n">
         <v>762</v>
@@ -7572,7 +7594,7 @@
         <v>1021</v>
       </c>
       <c r="K144" t="n">
-        <v>14.48275862068966</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L144" t="n">
         <v>761.7</v>
@@ -7623,7 +7645,7 @@
         <v>1024</v>
       </c>
       <c r="K145" t="n">
-        <v>12.16216216216216</v>
+        <v>12.5</v>
       </c>
       <c r="L145" t="n">
         <v>762</v>
@@ -7674,7 +7696,7 @@
         <v>1029</v>
       </c>
       <c r="K146" t="n">
-        <v>15.03267973856209</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="L146" t="n">
         <v>763.3</v>
@@ -7725,7 +7747,7 @@
         <v>1034</v>
       </c>
       <c r="K147" t="n">
-        <v>6.04026845637584</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="L147" t="n">
         <v>764.8</v>
@@ -7776,7 +7798,7 @@
         <v>1039</v>
       </c>
       <c r="K148" t="n">
-        <v>-10.23622047244094</v>
+        <v>43.75</v>
       </c>
       <c r="L148" t="n">
         <v>766.9</v>
@@ -7827,7 +7849,7 @@
         <v>1039</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.785123966942149</v>
+        <v>43.75</v>
       </c>
       <c r="L149" t="n">
         <v>769.7</v>
@@ -7878,7 +7900,7 @@
         <v>1039</v>
       </c>
       <c r="K150" t="n">
-        <v>6.542056074766355</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L150" t="n">
         <v>772.5</v>
@@ -7929,7 +7951,7 @@
         <v>1040</v>
       </c>
       <c r="K151" t="n">
-        <v>5.660377358490567</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L151" t="n">
         <v>772.9</v>
@@ -7980,7 +8002,7 @@
         <v>1052</v>
       </c>
       <c r="K152" t="n">
-        <v>-5.084745762711865</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L152" t="n">
         <v>771.8</v>
@@ -8031,7 +8053,7 @@
         <v>1065</v>
       </c>
       <c r="K153" t="n">
-        <v>-1.639344262295082</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L153" t="n">
         <v>773</v>
@@ -8082,7 +8104,7 @@
         <v>1073</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.511811023622047</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L154" t="n">
         <v>772.6</v>
@@ -8133,7 +8155,7 @@
         <v>1091</v>
       </c>
       <c r="K155" t="n">
-        <v>14.70588235294118</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="L155" t="n">
         <v>774.3</v>
@@ -8184,7 +8206,7 @@
         <v>1092</v>
       </c>
       <c r="K156" t="n">
-        <v>19.6969696969697</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L156" t="n">
         <v>775.6</v>
@@ -8235,7 +8257,7 @@
         <v>1097</v>
       </c>
       <c r="K157" t="n">
-        <v>29.23076923076923</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L157" t="n">
         <v>777.9</v>
@@ -8286,7 +8308,7 @@
         <v>1099</v>
       </c>
       <c r="K158" t="n">
-        <v>31.29770992366413</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>779.9</v>
@@ -8337,7 +8359,7 @@
         <v>1100</v>
       </c>
       <c r="K159" t="n">
-        <v>39.2</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="L159" t="n">
         <v>782</v>
@@ -8388,7 +8410,7 @@
         <v>1103</v>
       </c>
       <c r="K160" t="n">
-        <v>35.9375</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L160" t="n">
         <v>783.8</v>
@@ -8439,7 +8461,7 @@
         <v>1109</v>
       </c>
       <c r="K161" t="n">
-        <v>13.76146788990826</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L161" t="n">
         <v>784.9</v>
@@ -8490,7 +8512,7 @@
         <v>1113</v>
       </c>
       <c r="K162" t="n">
-        <v>14.54545454545454</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L162" t="n">
         <v>787.6</v>
@@ -8541,7 +8563,7 @@
         <v>1128</v>
       </c>
       <c r="K163" t="n">
-        <v>9.565217391304348</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L163" t="n">
         <v>787.5</v>
@@ -8592,7 +8614,7 @@
         <v>1136</v>
       </c>
       <c r="K164" t="n">
-        <v>-4.347826086956522</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L164" t="n">
         <v>787.4</v>
@@ -8643,7 +8665,7 @@
         <v>1138</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.508771929824561</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L165" t="n">
         <v>785.3</v>
@@ -8694,7 +8716,7 @@
         <v>1150</v>
       </c>
       <c r="K166" t="n">
-        <v>2.479338842975207</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L166" t="n">
         <v>784.3</v>
@@ -8745,7 +8767,7 @@
         <v>1157</v>
       </c>
       <c r="K167" t="n">
-        <v>12.19512195121951</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L167" t="n">
         <v>783.5</v>
@@ -8796,7 +8818,7 @@
         <v>1158</v>
       </c>
       <c r="K168" t="n">
-        <v>7.563025210084033</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L168" t="n">
         <v>782.4</v>
@@ -8847,7 +8869,7 @@
         <v>1162</v>
       </c>
       <c r="K169" t="n">
-        <v>4.065040650406504</v>
+        <v>-22.03389830508474</v>
       </c>
       <c r="L169" t="n">
         <v>780.8</v>
@@ -8898,7 +8920,7 @@
         <v>1162</v>
       </c>
       <c r="K170" t="n">
-        <v>4.065040650406504</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L170" t="n">
         <v>779.5</v>
@@ -8949,7 +8971,7 @@
         <v>1162</v>
       </c>
       <c r="K171" t="n">
-        <v>3.278688524590164</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L171" t="n">
         <v>778.8</v>
@@ -9000,7 +9022,7 @@
         <v>1170</v>
       </c>
       <c r="K172" t="n">
-        <v>6.779661016949152</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L172" t="n">
         <v>776.9</v>
@@ -9051,7 +9073,7 @@
         <v>1177</v>
       </c>
       <c r="K173" t="n">
-        <v>1.785714285714286</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L173" t="n">
         <v>777.2</v>
@@ -9102,7 +9124,7 @@
         <v>1179</v>
       </c>
       <c r="K174" t="n">
-        <v>7.547169811320755</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L174" t="n">
         <v>778.1</v>
@@ -9153,7 +9175,7 @@
         <v>1196</v>
       </c>
       <c r="K175" t="n">
-        <v>-25.71428571428571</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L175" t="n">
         <v>777.5</v>
@@ -9204,7 +9226,7 @@
         <v>1196</v>
       </c>
       <c r="K176" t="n">
-        <v>-26.92307692307692</v>
+        <v>-64.1025641025641</v>
       </c>
       <c r="L176" t="n">
         <v>775.7</v>
@@ -9255,7 +9277,7 @@
         <v>1205</v>
       </c>
       <c r="K177" t="n">
-        <v>-22.22222222222222</v>
+        <v>-31.91489361702128</v>
       </c>
       <c r="L177" t="n">
         <v>774.1</v>
@@ -9306,7 +9328,7 @@
         <v>1224</v>
       </c>
       <c r="K178" t="n">
-        <v>-36</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L178" t="n">
         <v>770.7</v>
@@ -9357,7 +9379,7 @@
         <v>1230</v>
       </c>
       <c r="K179" t="n">
-        <v>-30.76923076923077</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L179" t="n">
         <v>768.3</v>
@@ -9408,7 +9430,7 @@
         <v>1247</v>
       </c>
       <c r="K180" t="n">
-        <v>-13.88888888888889</v>
+        <v>-8.235294117647058</v>
       </c>
       <c r="L180" t="n">
         <v>767.6</v>
@@ -9459,7 +9481,7 @@
         <v>1272</v>
       </c>
       <c r="K181" t="n">
-        <v>-23.92638036809816</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L181" t="n">
         <v>764.4</v>
@@ -9510,7 +9532,7 @@
         <v>1280</v>
       </c>
       <c r="K182" t="n">
-        <v>-30.53892215568862</v>
+        <v>-37.86407766990291</v>
       </c>
       <c r="L182" t="n">
         <v>761.2</v>
@@ -9561,7 +9583,7 @@
         <v>1301</v>
       </c>
       <c r="K183" t="n">
-        <v>-8.670520231213873</v>
+        <v>-13.11475409836066</v>
       </c>
       <c r="L183" t="n">
         <v>759.4</v>
@@ -9612,7 +9634,7 @@
         <v>1303</v>
       </c>
       <c r="K184" t="n">
-        <v>-5.389221556886228</v>
+        <v>-0.9345794392523363</v>
       </c>
       <c r="L184" t="n">
         <v>757.6</v>
@@ -9663,7 +9685,7 @@
         <v>1305</v>
       </c>
       <c r="K185" t="n">
-        <v>-2.994011976047904</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="L185" t="n">
         <v>757.7</v>
@@ -9714,7 +9736,7 @@
         <v>1308</v>
       </c>
       <c r="K186" t="n">
-        <v>-12.65822784810127</v>
+        <v>-10.67961165048544</v>
       </c>
       <c r="L186" t="n">
         <v>757.5</v>
@@ -9765,7 +9787,7 @@
         <v>1319</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.876543209876543</v>
+        <v>20</v>
       </c>
       <c r="L187" t="n">
         <v>757.5</v>
@@ -9816,7 +9838,7 @@
         <v>1337</v>
       </c>
       <c r="K188" t="n">
-        <v>-18.43575418994413</v>
+        <v>-4.672897196261682</v>
       </c>
       <c r="L188" t="n">
         <v>757.6</v>
@@ -9867,7 +9889,7 @@
         <v>1348</v>
       </c>
       <c r="K189" t="n">
-        <v>-9.67741935483871</v>
+        <v>-10.89108910891089</v>
       </c>
       <c r="L189" t="n">
         <v>758.2</v>
@@ -9918,7 +9940,7 @@
         <v>1351</v>
       </c>
       <c r="K190" t="n">
-        <v>-11.11111111111111</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="L190" t="n">
         <v>756.8</v>
@@ -9969,7 +9991,7 @@
         <v>1358</v>
       </c>
       <c r="K191" t="n">
-        <v>-14.28571428571428</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L191" t="n">
         <v>757.2</v>
@@ -10020,7 +10042,7 @@
         <v>1366</v>
       </c>
       <c r="K192" t="n">
-        <v>-14.28571428571428</v>
+        <v>-26.15384615384616</v>
       </c>
       <c r="L192" t="n">
         <v>757.6</v>
@@ -10071,7 +10093,7 @@
         <v>1369</v>
       </c>
       <c r="K193" t="n">
-        <v>-19.79166666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L193" t="n">
         <v>755.6</v>
@@ -10122,7 +10144,7 @@
         <v>1369</v>
       </c>
       <c r="K194" t="n">
-        <v>-18.94736842105263</v>
+        <v>-31.25</v>
       </c>
       <c r="L194" t="n">
         <v>753.8</v>
@@ -10173,7 +10195,7 @@
         <v>1369</v>
       </c>
       <c r="K195" t="n">
-        <v>-10.98265895953757</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L195" t="n">
         <v>751.8</v>
@@ -10224,7 +10246,7 @@
         <v>1370</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.49425287356322</v>
+        <v>-56.86274509803921</v>
       </c>
       <c r="L196" t="n">
         <v>750</v>
@@ -10275,7 +10297,7 @@
         <v>1373</v>
       </c>
       <c r="K197" t="n">
-        <v>-15.47619047619048</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L197" t="n">
         <v>747.4</v>
@@ -10326,7 +10348,7 @@
         <v>1376</v>
       </c>
       <c r="K198" t="n">
-        <v>-6.578947368421052</v>
+        <v>-78.57142857142857</v>
       </c>
       <c r="L198" t="n">
         <v>746.3</v>
@@ -10377,7 +10399,7 @@
         <v>1376</v>
       </c>
       <c r="K199" t="n">
-        <v>-10.95890410958904</v>
+        <v>-76</v>
       </c>
       <c r="L199" t="n">
         <v>744.1</v>
@@ -10428,7 +10450,7 @@
         <v>1378</v>
       </c>
       <c r="K200" t="n">
-        <v>-23.66412213740458</v>
+        <v>-50</v>
       </c>
       <c r="L200" t="n">
         <v>742.4</v>
@@ -10479,7 +10501,7 @@
         <v>1379</v>
       </c>
       <c r="K201" t="n">
-        <v>-4.672897196261682</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L201" t="n">
         <v>741.5</v>
@@ -10530,7 +10552,7 @@
         <v>1382</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L202" t="n">
         <v>741.1</v>
@@ -10581,7 +10603,7 @@
         <v>1383</v>
       </c>
       <c r="K203" t="n">
-        <v>-24.39024390243902</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>741.1</v>
@@ -10632,7 +10654,7 @@
         <v>1389</v>
       </c>
       <c r="K204" t="n">
-        <v>-13.95348837209302</v>
+        <v>30</v>
       </c>
       <c r="L204" t="n">
         <v>741.7</v>
@@ -10683,7 +10705,7 @@
         <v>1413</v>
       </c>
       <c r="K205" t="n">
-        <v>9.25925925925926</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L205" t="n">
         <v>744.7</v>
@@ -10734,7 +10756,7 @@
         <v>1424</v>
       </c>
       <c r="K206" t="n">
-        <v>1.724137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>746.7</v>
@@ -10785,7 +10807,7 @@
         <v>1443</v>
       </c>
       <c r="K207" t="n">
-        <v>-22.58064516129032</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L207" t="n">
         <v>746.5</v>
@@ -10836,7 +10858,7 @@
         <v>1444</v>
       </c>
       <c r="K208" t="n">
-        <v>-10.2803738317757</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>746.5</v>
@@ -10887,7 +10909,7 @@
         <v>1446</v>
       </c>
       <c r="K209" t="n">
-        <v>-20.40816326530612</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>746.7</v>
@@ -10938,7 +10960,7 @@
         <v>1446</v>
       </c>
       <c r="K210" t="n">
-        <v>-17.89473684210526</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L210" t="n">
         <v>746.7</v>
@@ -10989,7 +11011,7 @@
         <v>1446</v>
       </c>
       <c r="K211" t="n">
-        <v>-11.36363636363636</v>
+        <v>3.125</v>
       </c>
       <c r="L211" t="n">
         <v>746.6</v>
@@ -11040,7 +11062,7 @@
         <v>1452</v>
       </c>
       <c r="K212" t="n">
-        <v>4.651162790697675</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L212" t="n">
         <v>747.4</v>
@@ -11091,7 +11113,7 @@
         <v>1471</v>
       </c>
       <c r="K213" t="n">
-        <v>25.49019607843137</v>
+        <v>24.39024390243902</v>
       </c>
       <c r="L213" t="n">
         <v>750</v>
@@ -11142,7 +11164,7 @@
         <v>1472</v>
       </c>
       <c r="K214" t="n">
-        <v>24.27184466019418</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L214" t="n">
         <v>751.9</v>
@@ -11193,7 +11215,7 @@
         <v>1478</v>
       </c>
       <c r="K215" t="n">
-        <v>17.43119266055046</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>750.8</v>
@@ -11244,7 +11266,7 @@
         <v>1478</v>
       </c>
       <c r="K216" t="n">
-        <v>18.51851851851852</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>750.8</v>
@@ -11295,7 +11317,7 @@
         <v>1481</v>
       </c>
       <c r="K217" t="n">
-        <v>18.51851851851852</v>
+        <v>62.16216216216216</v>
       </c>
       <c r="L217" t="n">
         <v>753</v>
@@ -11346,7 +11368,7 @@
         <v>1496</v>
       </c>
       <c r="K218" t="n">
-        <v>6.666666666666667</v>
+        <v>12</v>
       </c>
       <c r="L218" t="n">
         <v>753.8</v>
@@ -11397,7 +11419,7 @@
         <v>1508</v>
       </c>
       <c r="K219" t="n">
-        <v>15.15151515151515</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L219" t="n">
         <v>755.6</v>
@@ -11448,7 +11470,7 @@
         <v>1523</v>
       </c>
       <c r="K220" t="n">
-        <v>2.068965517241379</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="L220" t="n">
         <v>755.9</v>
@@ -11499,7 +11521,7 @@
         <v>1535</v>
       </c>
       <c r="K221" t="n">
-        <v>8.974358974358974</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="L221" t="n">
         <v>757.4</v>
@@ -11550,7 +11572,7 @@
         <v>1535</v>
       </c>
       <c r="K222" t="n">
-        <v>11.11111111111111</v>
+        <v>-15.625</v>
       </c>
       <c r="L222" t="n">
         <v>758.3</v>
@@ -11601,7 +11623,7 @@
         <v>1539</v>
       </c>
       <c r="K223" t="n">
-        <v>7.692307692307693</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L223" t="n">
         <v>756.9</v>
@@ -11652,7 +11674,7 @@
         <v>1548</v>
       </c>
       <c r="K224" t="n">
-        <v>-1.886792452830189</v>
+        <v>-22.85714285714286</v>
       </c>
       <c r="L224" t="n">
         <v>754.7</v>
@@ -11703,7 +11725,7 @@
         <v>1554</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.8936170212766</v>
+        <v>-13.1578947368421</v>
       </c>
       <c r="L225" t="n">
         <v>753.7</v>
@@ -11754,7 +11776,7 @@
         <v>1554</v>
       </c>
       <c r="K226" t="n">
-        <v>-7.692307692307693</v>
+        <v>-17.80821917808219</v>
       </c>
       <c r="L226" t="n">
         <v>752.7</v>
@@ -11805,7 +11827,7 @@
         <v>1554</v>
       </c>
       <c r="K227" t="n">
-        <v>8.108108108108109</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L227" t="n">
         <v>751.4</v>
@@ -11856,7 +11878,7 @@
         <v>1565</v>
       </c>
       <c r="K228" t="n">
-        <v>-0.8264462809917356</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L228" t="n">
         <v>750.5</v>
@@ -11907,7 +11929,7 @@
         <v>1571</v>
       </c>
       <c r="K229" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>749</v>
@@ -11958,7 +11980,7 @@
         <v>1579</v>
       </c>
       <c r="K230" t="n">
-        <v>8.270676691729323</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L230" t="n">
         <v>749.8</v>
@@ -12009,7 +12031,7 @@
         <v>1586</v>
       </c>
       <c r="K231" t="n">
-        <v>12.85714285714286</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L231" t="n">
         <v>750.1</v>
@@ -12060,7 +12082,7 @@
         <v>1592</v>
       </c>
       <c r="K232" t="n">
-        <v>4.285714285714286</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L232" t="n">
         <v>749.8</v>
@@ -12111,7 +12133,7 @@
         <v>1607</v>
       </c>
       <c r="K233" t="n">
-        <v>-20.58823529411764</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L233" t="n">
         <v>748.4</v>
@@ -12162,7 +12184,7 @@
         <v>1608</v>
       </c>
       <c r="K234" t="n">
-        <v>-20.58823529411764</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L234" t="n">
         <v>747.8</v>
@@ -12213,7 +12235,7 @@
         <v>1634</v>
       </c>
       <c r="K235" t="n">
-        <v>-30.76923076923077</v>
+        <v>-47.5</v>
       </c>
       <c r="L235" t="n">
         <v>744</v>
@@ -12264,7 +12286,7 @@
         <v>1646</v>
       </c>
       <c r="K236" t="n">
-        <v>-35.71428571428572</v>
+        <v>-54.34782608695652</v>
       </c>
       <c r="L236" t="n">
         <v>739</v>
@@ -12315,7 +12337,7 @@
         <v>1648</v>
       </c>
       <c r="K237" t="n">
-        <v>-36.52694610778443</v>
+        <v>-44.57831325301205</v>
       </c>
       <c r="L237" t="n">
         <v>734.2</v>
@@ -12366,7 +12388,7 @@
         <v>1665</v>
       </c>
       <c r="K238" t="n">
-        <v>-17.15976331360947</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L238" t="n">
         <v>732.2</v>
@@ -12417,7 +12439,7 @@
         <v>1684</v>
       </c>
       <c r="K239" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L239" t="n">
         <v>731.5</v>
@@ -12468,7 +12490,7 @@
         <v>1687</v>
       </c>
       <c r="K240" t="n">
-        <v>-6.097560975609756</v>
+        <v>-24.75247524752475</v>
       </c>
       <c r="L240" t="n">
         <v>729.7</v>
@@ -12519,7 +12541,7 @@
         <v>1714</v>
       </c>
       <c r="K241" t="n">
-        <v>2.793296089385475</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="L241" t="n">
         <v>729.9</v>
@@ -12570,7 +12592,7 @@
         <v>1727</v>
       </c>
       <c r="K242" t="n">
-        <v>-4.166666666666666</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L242" t="n">
         <v>729.4</v>
@@ -12621,7 +12643,7 @@
         <v>1743</v>
       </c>
       <c r="K243" t="n">
-        <v>-9.803921568627452</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L243" t="n">
         <v>728.8</v>
@@ -12672,7 +12694,7 @@
         <v>1743</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.641025641025641</v>
+        <v>19.26605504587156</v>
       </c>
       <c r="L244" t="n">
         <v>728.3</v>
@@ -12723,7 +12745,7 @@
         <v>1744</v>
       </c>
       <c r="K245" t="n">
-        <v>-9.473684210526317</v>
+        <v>32.6530612244898</v>
       </c>
       <c r="L245" t="n">
         <v>730.3</v>
@@ -12774,7 +12796,7 @@
         <v>1756</v>
       </c>
       <c r="K246" t="n">
-        <v>-14.85148514851485</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L246" t="n">
         <v>732.3</v>
@@ -12825,7 +12847,7 @@
         <v>1792</v>
       </c>
       <c r="K247" t="n">
-        <v>2.521008403361344</v>
+        <v>29.13385826771653</v>
       </c>
       <c r="L247" t="n">
         <v>737.7</v>
@@ -12876,7 +12898,7 @@
         <v>1805</v>
       </c>
       <c r="K248" t="n">
-        <v>1.666666666666667</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="L248" t="n">
         <v>740.1</v>
@@ -12927,7 +12949,7 @@
         <v>1807</v>
       </c>
       <c r="K249" t="n">
-        <v>-1.694915254237288</v>
+        <v>5</v>
       </c>
       <c r="L249" t="n">
         <v>740.4</v>
@@ -12978,7 +13000,7 @@
         <v>1810</v>
       </c>
       <c r="K250" t="n">
-        <v>-6.493506493506493</v>
+        <v>-25</v>
       </c>
       <c r="L250" t="n">
         <v>740.7</v>
@@ -13029,7 +13051,7 @@
         <v>1817</v>
       </c>
       <c r="K251" t="n">
-        <v>-12.55411255411255</v>
+        <v>-20</v>
       </c>
       <c r="L251" t="n">
         <v>737.6</v>
@@ -13080,7 +13102,7 @@
         <v>1817</v>
       </c>
       <c r="K252" t="n">
-        <v>-10.22222222222222</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L252" t="n">
         <v>735.8</v>
@@ -13131,7 +13153,7 @@
         <v>1823</v>
       </c>
       <c r="K253" t="n">
-        <v>-0.9259259259259258</v>
+        <v>5</v>
       </c>
       <c r="L253" t="n">
         <v>736.2</v>
@@ -13182,7 +13204,7 @@
         <v>1827</v>
       </c>
       <c r="K254" t="n">
-        <v>1.36986301369863</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="L254" t="n">
         <v>737</v>
@@ -13233,7 +13255,7 @@
         <v>1847</v>
       </c>
       <c r="K255" t="n">
-        <v>4.225352112676056</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="L255" t="n">
         <v>735.9</v>
@@ -13284,7 +13306,7 @@
         <v>1852</v>
       </c>
       <c r="K256" t="n">
-        <v>12.62135922330097</v>
+        <v>-50</v>
       </c>
       <c r="L256" t="n">
         <v>736.5</v>
@@ -13335,7 +13357,7 @@
         <v>1869</v>
       </c>
       <c r="K257" t="n">
-        <v>18.55203619909502</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>735.2</v>
@@ -13386,7 +13408,7 @@
         <v>1886</v>
       </c>
       <c r="K258" t="n">
-        <v>3.167420814479638</v>
+        <v>-18.9873417721519</v>
       </c>
       <c r="L258" t="n">
         <v>733.5</v>
@@ -13437,7 +13459,7 @@
         <v>1887</v>
       </c>
       <c r="K259" t="n">
-        <v>-6.403940886699508</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L259" t="n">
         <v>731.9</v>
@@ -13488,7 +13510,7 @@
         <v>1897</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L260" t="n">
         <v>731.6</v>
@@ -13539,7 +13561,7 @@
         <v>1899</v>
       </c>
       <c r="K261" t="n">
-        <v>-15.67567567567568</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L261" t="n">
         <v>731.8</v>
@@ -13590,7 +13612,7 @@
         <v>1912</v>
       </c>
       <c r="K262" t="n">
-        <v>-15.67567567567568</v>
+        <v>-19.10112359550562</v>
       </c>
       <c r="L262" t="n">
         <v>730.7</v>
@@ -13641,7 +13663,7 @@
         <v>1922</v>
       </c>
       <c r="K263" t="n">
-        <v>-12.84916201117318</v>
+        <v>-32.63157894736842</v>
       </c>
       <c r="L263" t="n">
         <v>728</v>
@@ -13692,7 +13714,7 @@
         <v>1941</v>
       </c>
       <c r="K264" t="n">
-        <v>-2.02020202020202</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="L264" t="n">
         <v>726.8</v>
@@ -13743,7 +13765,7 @@
         <v>1949</v>
       </c>
       <c r="K265" t="n">
-        <v>-5.365853658536586</v>
+        <v>-5.154639175257731</v>
       </c>
       <c r="L265" t="n">
         <v>726.8</v>
@@ -13794,7 +13816,7 @@
         <v>1973</v>
       </c>
       <c r="K266" t="n">
-        <v>11.52073732718894</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="L266" t="n">
         <v>728.7</v>
@@ -13845,7 +13867,7 @@
         <v>1977</v>
       </c>
       <c r="K267" t="n">
-        <v>-3.783783783783784</v>
+        <v>25.27472527472527</v>
       </c>
       <c r="L267" t="n">
         <v>729.3</v>
@@ -13896,7 +13918,7 @@
         <v>2006</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.44278606965174</v>
+        <v>-4.201680672268908</v>
       </c>
       <c r="L268" t="n">
         <v>728.7</v>
@@ -13947,7 +13969,7 @@
         <v>2007</v>
       </c>
       <c r="K269" t="n">
-        <v>-11</v>
+        <v>-14.54545454545454</v>
       </c>
       <c r="L269" t="n">
         <v>728.1</v>
@@ -13998,7 +14020,7 @@
         <v>2014</v>
       </c>
       <c r="K270" t="n">
-        <v>-12.74509803921569</v>
+        <v>-18.26086956521739</v>
       </c>
       <c r="L270" t="n">
         <v>725.8</v>
@@ -14049,7 +14071,7 @@
         <v>2017</v>
       </c>
       <c r="K271" t="n">
-        <v>-8</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L271" t="n">
         <v>724</v>
@@ -14100,7 +14122,7 @@
         <v>2022</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.365853658536586</v>
+        <v>10</v>
       </c>
       <c r="L272" t="n">
         <v>724</v>
@@ -14151,7 +14173,7 @@
         <v>2025</v>
       </c>
       <c r="K273" t="n">
-        <v>-6.930693069306932</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L273" t="n">
         <v>725.3</v>
@@ -14202,7 +14224,7 @@
         <v>2030</v>
       </c>
       <c r="K274" t="n">
-        <v>-6.403940886699508</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="L274" t="n">
         <v>725.2</v>
@@ -14253,7 +14275,7 @@
         <v>2037</v>
       </c>
       <c r="K275" t="n">
-        <v>7.368421052631578</v>
+        <v>-15.625</v>
       </c>
       <c r="L275" t="n">
         <v>726.6</v>
@@ -14304,7 +14326,7 @@
         <v>2037</v>
       </c>
       <c r="K276" t="n">
-        <v>4.864864864864865</v>
+        <v>-23.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>725.6</v>
@@ -14355,7 +14377,7 @@
         <v>2040</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.432748538011696</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L277" t="n">
         <v>723.9</v>
@@ -14406,7 +14428,7 @@
         <v>2040</v>
       </c>
       <c r="K278" t="n">
-        <v>3.896103896103896</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L278" t="n">
         <v>725.1</v>
@@ -14457,7 +14479,7 @@
         <v>2041</v>
       </c>
       <c r="K279" t="n">
-        <v>3.896103896103896</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L279" t="n">
         <v>726.3</v>
@@ -14508,7 +14530,7 @@
         <v>2049</v>
       </c>
       <c r="K280" t="n">
-        <v>-7.894736842105263</v>
+        <v>25</v>
       </c>
       <c r="L280" t="n">
         <v>727.4</v>
@@ -14559,7 +14581,7 @@
         <v>2049</v>
       </c>
       <c r="K281" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L281" t="n">
         <v>728.2</v>
@@ -14610,7 +14632,7 @@
         <v>2053</v>
       </c>
       <c r="K282" t="n">
-        <v>4.964539007092199</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L282" t="n">
         <v>728.9</v>
@@ -14661,7 +14683,7 @@
         <v>2054</v>
       </c>
       <c r="K283" t="n">
-        <v>13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>729.4</v>
@@ -14712,7 +14734,7 @@
         <v>2057</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.448275862068965</v>
+        <v>-50</v>
       </c>
       <c r="L284" t="n">
         <v>729.1</v>
@@ -14763,7 +14785,7 @@
         <v>2071</v>
       </c>
       <c r="K285" t="n">
-        <v>14.75409836065574</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L285" t="n">
         <v>729.5</v>
@@ -14814,7 +14836,7 @@
         <v>2071</v>
       </c>
       <c r="K286" t="n">
-        <v>-6.122448979591836</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L286" t="n">
         <v>729.9</v>
@@ -14865,7 +14887,7 @@
         <v>2072</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.57894736842105</v>
+        <v>18.75</v>
       </c>
       <c r="L287" t="n">
         <v>730.5</v>
@@ -14916,7 +14938,7 @@
         <v>2072</v>
       </c>
       <c r="K288" t="n">
-        <v>27.27272727272727</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L288" t="n">
         <v>731.1</v>
@@ -14967,7 +14989,7 @@
         <v>2078</v>
       </c>
       <c r="K289" t="n">
-        <v>35.2112676056338</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L289" t="n">
         <v>732.4</v>
@@ -15018,7 +15040,7 @@
         <v>2083</v>
       </c>
       <c r="K290" t="n">
-        <v>53.62318840579711</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L290" t="n">
         <v>735</v>
@@ -15069,7 +15091,7 @@
         <v>2084</v>
       </c>
       <c r="K291" t="n">
-        <v>52.23880597014925</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L291" t="n">
         <v>737.7</v>
@@ -15120,7 +15142,7 @@
         <v>2094</v>
       </c>
       <c r="K292" t="n">
-        <v>55.55555555555556</v>
+        <v>80</v>
       </c>
       <c r="L292" t="n">
         <v>741</v>
@@ -15171,7 +15193,7 @@
         <v>2098</v>
       </c>
       <c r="K293" t="n">
-        <v>45.20547945205479</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="L293" t="n">
         <v>743.8</v>
@@ -15222,7 +15244,7 @@
         <v>2102</v>
       </c>
       <c r="K294" t="n">
-        <v>44.44444444444444</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L294" t="n">
         <v>747.3</v>
@@ -15273,7 +15295,7 @@
         <v>2102</v>
       </c>
       <c r="K295" t="n">
-        <v>38.46153846153847</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L295" t="n">
         <v>749.4</v>
@@ -15324,7 +15346,7 @@
         <v>2108</v>
       </c>
       <c r="K296" t="n">
-        <v>26.76056338028169</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L296" t="n">
         <v>750.9</v>
@@ -15375,7 +15397,7 @@
         <v>2125</v>
       </c>
       <c r="K297" t="n">
-        <v>5.88235294117647</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L297" t="n">
         <v>750.8</v>
@@ -15426,7 +15448,7 @@
         <v>2141</v>
       </c>
       <c r="K298" t="n">
-        <v>20.79207920792079</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L298" t="n">
         <v>752.3</v>
@@ -15477,7 +15499,7 @@
         <v>2148</v>
       </c>
       <c r="K299" t="n">
-        <v>14.01869158878505</v>
+        <v>-4.615384615384616</v>
       </c>
       <c r="L299" t="n">
         <v>752.5</v>
@@ -15528,7 +15550,7 @@
         <v>2160</v>
       </c>
       <c r="K300" t="n">
-        <v>9.90990990990991</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L300" t="n">
         <v>751</v>
@@ -15579,7 +15601,7 @@
         <v>2171</v>
       </c>
       <c r="K301" t="n">
-        <v>18.0327868852459</v>
+        <v>-19.48051948051948</v>
       </c>
       <c r="L301" t="n">
         <v>750.5</v>
@@ -15630,7 +15652,7 @@
         <v>2172</v>
       </c>
       <c r="K302" t="n">
-        <v>15.96638655462185</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L302" t="n">
         <v>749.1</v>
@@ -15681,7 +15703,7 @@
         <v>2173</v>
       </c>
       <c r="K303" t="n">
-        <v>15.96638655462185</v>
+        <v>-18.30985915492958</v>
       </c>
       <c r="L303" t="n">
         <v>748.2</v>
@@ -15732,7 +15754,7 @@
         <v>2178</v>
       </c>
       <c r="K304" t="n">
-        <v>22.31404958677686</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L304" t="n">
         <v>747.4</v>
@@ -15783,7 +15805,7 @@
         <v>2188</v>
       </c>
       <c r="K305" t="n">
-        <v>19.65811965811966</v>
+        <v>10</v>
       </c>
       <c r="L305" t="n">
         <v>747.6</v>
@@ -15834,7 +15856,7 @@
         <v>2191</v>
       </c>
       <c r="K306" t="n">
-        <v>21.66666666666667</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="L306" t="n">
         <v>748.7</v>
@@ -15885,7 +15907,7 @@
         <v>2199</v>
       </c>
       <c r="K307" t="n">
-        <v>14.96062992125984</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L307" t="n">
         <v>750.7</v>
@@ -15936,7 +15958,7 @@
         <v>2207</v>
       </c>
       <c r="K308" t="n">
-        <v>20</v>
+        <v>32.20338983050847</v>
       </c>
       <c r="L308" t="n">
         <v>751.9</v>
@@ -15987,7 +16009,7 @@
         <v>2215</v>
       </c>
       <c r="K309" t="n">
-        <v>9.48905109489051</v>
+        <v>41.81818181818181</v>
       </c>
       <c r="L309" t="n">
         <v>753</v>
@@ -16038,7 +16060,7 @@
         <v>2223</v>
       </c>
       <c r="K310" t="n">
-        <v>11.42857142857143</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L310" t="n">
         <v>756.1</v>
@@ -16089,7 +16111,7 @@
         <v>2223</v>
       </c>
       <c r="K311" t="n">
-        <v>10.79136690647482</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L311" t="n">
         <v>758.1</v>
@@ -16140,7 +16162,7 @@
         <v>2223</v>
       </c>
       <c r="K312" t="n">
-        <v>3.875968992248062</v>
+        <v>36</v>
       </c>
       <c r="L312" t="n">
         <v>760</v>
@@ -16191,7 +16213,7 @@
         <v>2251</v>
       </c>
       <c r="K313" t="n">
-        <v>-12.41830065359477</v>
+        <v>-20.54794520547945</v>
       </c>
       <c r="L313" t="n">
         <v>759</v>
@@ -16242,7 +16264,7 @@
         <v>2268</v>
       </c>
       <c r="K314" t="n">
-        <v>-3.614457831325301</v>
+        <v>-10</v>
       </c>
       <c r="L314" t="n">
         <v>759.2</v>
@@ -16293,7 +16315,7 @@
         <v>2281</v>
       </c>
       <c r="K315" t="n">
-        <v>-10.6145251396648</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L315" t="n">
         <v>757.1</v>
@@ -16344,7 +16366,7 @@
         <v>2282</v>
       </c>
       <c r="K316" t="n">
-        <v>-6.896551724137931</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L316" t="n">
         <v>754.8</v>
@@ -16395,7 +16417,7 @@
         <v>2285</v>
       </c>
       <c r="K317" t="n">
-        <v>1.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>753</v>
@@ -16446,7 +16468,7 @@
         <v>2295</v>
       </c>
       <c r="K318" t="n">
-        <v>-2.597402597402597</v>
+        <v>-10</v>
       </c>
       <c r="L318" t="n">
         <v>751.4</v>
@@ -16497,7 +16519,7 @@
         <v>2305</v>
       </c>
       <c r="K319" t="n">
-        <v>-4.45859872611465</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L319" t="n">
         <v>749.6</v>
@@ -16548,7 +16570,7 @@
         <v>2305</v>
       </c>
       <c r="K320" t="n">
-        <v>3.448275862068965</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L320" t="n">
         <v>747</v>
@@ -16599,7 +16621,7 @@
         <v>2305</v>
       </c>
       <c r="K321" t="n">
-        <v>-4.477611940298507</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L321" t="n">
         <v>744.4</v>
@@ -16650,7 +16672,7 @@
         <v>2312</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="L322" t="n">
         <v>742.5</v>
@@ -16701,7 +16723,7 @@
         <v>2314</v>
       </c>
       <c r="K323" t="n">
-        <v>0.7092198581560284</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L323" t="n">
         <v>743.6</v>
@@ -16752,7 +16774,7 @@
         <v>2321</v>
       </c>
       <c r="K324" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>742.3</v>
@@ -16803,7 +16825,7 @@
         <v>2325</v>
       </c>
       <c r="K325" t="n">
-        <v>-18.24817518248175</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L325" t="n">
         <v>741.9</v>
@@ -16854,7 +16876,7 @@
         <v>2332</v>
       </c>
       <c r="K326" t="n">
-        <v>-24.82269503546099</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L326" t="n">
         <v>740.7</v>
@@ -16905,7 +16927,7 @@
         <v>2336</v>
       </c>
       <c r="K327" t="n">
-        <v>-16.78832116788321</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L327" t="n">
         <v>740.2</v>
@@ -16956,7 +16978,7 @@
         <v>2339</v>
       </c>
       <c r="K328" t="n">
-        <v>-25.75757575757576</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L328" t="n">
         <v>738.4</v>
@@ -17007,7 +17029,7 @@
         <v>2340</v>
       </c>
       <c r="K329" t="n">
-        <v>-21.6</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L329" t="n">
         <v>737.5</v>
@@ -17058,7 +17080,7 @@
         <v>2345</v>
       </c>
       <c r="K330" t="n">
-        <v>-32.78688524590164</v>
+        <v>-35</v>
       </c>
       <c r="L330" t="n">
         <v>736.1</v>
@@ -17109,7 +17131,7 @@
         <v>2346</v>
       </c>
       <c r="K331" t="n">
-        <v>-31.70731707317073</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L331" t="n">
         <v>734.8</v>
@@ -17160,7 +17182,7 @@
         <v>2347</v>
       </c>
       <c r="K332" t="n">
-        <v>-32.25806451612903</v>
+        <v>-69.6969696969697</v>
       </c>
       <c r="L332" t="n">
         <v>732.7</v>
@@ -17211,7 +17233,7 @@
         <v>2354</v>
       </c>
       <c r="K333" t="n">
-        <v>-18.44660194174757</v>
+        <v>-69.6969696969697</v>
       </c>
       <c r="L333" t="n">
         <v>729.7</v>
@@ -17262,7 +17284,7 @@
         <v>2356</v>
       </c>
       <c r="K334" t="n">
-        <v>-38.63636363636363</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L334" t="n">
         <v>727.6</v>
@@ -17313,7 +17335,7 @@
         <v>2363</v>
       </c>
       <c r="K335" t="n">
-        <v>-17.07317073170732</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L335" t="n">
         <v>726.6</v>
@@ -17364,7 +17386,7 @@
         <v>2365</v>
       </c>
       <c r="K336" t="n">
-        <v>-15.66265060240964</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L336" t="n">
         <v>726.5</v>
@@ -17415,7 +17437,7 @@
         <v>2365</v>
       </c>
       <c r="K337" t="n">
-        <v>-12.5</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L337" t="n">
         <v>726</v>
@@ -17466,7 +17488,7 @@
         <v>2366</v>
       </c>
       <c r="K338" t="n">
-        <v>-26.76056338028169</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>725.9</v>
@@ -17517,7 +17539,7 @@
         <v>2378</v>
       </c>
       <c r="K339" t="n">
-        <v>4.10958904109589</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L339" t="n">
         <v>727.1</v>
@@ -17568,7 +17590,7 @@
         <v>2390</v>
       </c>
       <c r="K340" t="n">
-        <v>-10.58823529411765</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L340" t="n">
         <v>727.6</v>
@@ -17619,7 +17641,7 @@
         <v>2395</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>727.5</v>
@@ -17670,7 +17692,7 @@
         <v>2401</v>
       </c>
       <c r="K342" t="n">
-        <v>-30.3370786516854</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L342" t="n">
         <v>726.9</v>
@@ -17721,7 +17743,7 @@
         <v>2411</v>
       </c>
       <c r="K343" t="n">
-        <v>-19.58762886597938</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L343" t="n">
         <v>728</v>
@@ -17772,7 +17794,7 @@
         <v>2413</v>
       </c>
       <c r="K344" t="n">
-        <v>-10.8695652173913</v>
+        <v>8</v>
       </c>
       <c r="L344" t="n">
         <v>729.1</v>
@@ -17823,7 +17845,7 @@
         <v>2427</v>
       </c>
       <c r="K345" t="n">
-        <v>7.84313725490196</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L345" t="n">
         <v>730.9</v>
@@ -17874,7 +17896,7 @@
         <v>2427</v>
       </c>
       <c r="K346" t="n">
-        <v>15.78947368421053</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L346" t="n">
         <v>732.5</v>
@@ -17925,7 +17947,7 @@
         <v>2438</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L347" t="n">
         <v>733</v>
@@ -17976,7 +17998,7 @@
         <v>2448</v>
       </c>
       <c r="K348" t="n">
-        <v>11.92660550458716</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L348" t="n">
         <v>734.4</v>
@@ -18027,7 +18049,7 @@
         <v>2449</v>
       </c>
       <c r="K349" t="n">
-        <v>13.76146788990826</v>
+        <v>25.42372881355932</v>
       </c>
       <c r="L349" t="n">
         <v>734.7</v>
@@ -18078,7 +18100,7 @@
         <v>2463</v>
       </c>
       <c r="K350" t="n">
-        <v>28.8135593220339</v>
+        <v>50</v>
       </c>
       <c r="L350" t="n">
         <v>737.6</v>
@@ -18129,7 +18151,7 @@
         <v>2467</v>
       </c>
       <c r="K351" t="n">
-        <v>23.96694214876033</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L351" t="n">
         <v>740.6</v>
@@ -18180,7 +18202,7 @@
         <v>2470</v>
       </c>
       <c r="K352" t="n">
-        <v>26.82926829268293</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L352" t="n">
         <v>744.5</v>
@@ -18231,7 +18253,7 @@
         <v>2487</v>
       </c>
       <c r="K353" t="n">
-        <v>17.29323308270677</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L353" t="n">
         <v>745.7</v>
@@ -18282,7 +18304,7 @@
         <v>2504</v>
       </c>
       <c r="K354" t="n">
-        <v>25.67567567567567</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="L354" t="n">
         <v>748.4</v>
@@ -18333,7 +18355,7 @@
         <v>2505</v>
       </c>
       <c r="K355" t="n">
-        <v>21.12676056338028</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L355" t="n">
         <v>749.6</v>
@@ -18384,7 +18406,7 @@
         <v>2506</v>
       </c>
       <c r="K356" t="n">
-        <v>20.56737588652482</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L356" t="n">
         <v>750.9</v>
@@ -18435,7 +18457,7 @@
         <v>2509</v>
       </c>
       <c r="K357" t="n">
-        <v>22.22222222222222</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L357" t="n">
         <v>753.6</v>
@@ -18486,7 +18508,7 @@
         <v>2510</v>
       </c>
       <c r="K358" t="n">
-        <v>20.83333333333334</v>
+        <v>24.59016393442623</v>
       </c>
       <c r="L358" t="n">
         <v>755.2</v>
@@ -18537,7 +18559,7 @@
         <v>2514</v>
       </c>
       <c r="K359" t="n">
-        <v>16.17647058823529</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L359" t="n">
         <v>757.1</v>
@@ -18588,7 +18610,7 @@
         <v>2514</v>
       </c>
       <c r="K360" t="n">
-        <v>27.41935483870968</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L360" t="n">
         <v>757.6</v>
@@ -18639,7 +18661,7 @@
         <v>2518</v>
       </c>
       <c r="K361" t="n">
-        <v>34.95934959349594</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L361" t="n">
         <v>758.9</v>
@@ -18690,7 +18712,7 @@
         <v>2521</v>
       </c>
       <c r="K362" t="n">
-        <v>38.33333333333334</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="L362" t="n">
         <v>759.6</v>
@@ -18741,7 +18763,7 @@
         <v>2523</v>
       </c>
       <c r="K363" t="n">
-        <v>33.92857142857143</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L363" t="n">
         <v>762.2</v>
@@ -18792,7 +18814,7 @@
         <v>2527</v>
       </c>
       <c r="K364" t="n">
-        <v>35.08771929824561</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L364" t="n">
         <v>763.5</v>
@@ -18843,7 +18865,7 @@
         <v>2538</v>
       </c>
       <c r="K365" t="n">
-        <v>13.51351351351351</v>
+        <v>6.25</v>
       </c>
       <c r="L365" t="n">
         <v>763.8</v>
@@ -18894,7 +18916,7 @@
         <v>2546</v>
       </c>
       <c r="K366" t="n">
-        <v>19.32773109243698</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L366" t="n">
         <v>764.8</v>
@@ -18945,7 +18967,7 @@
         <v>2546</v>
       </c>
       <c r="K367" t="n">
-        <v>31.48148148148148</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L367" t="n">
         <v>765.5</v>
@@ -18996,7 +19018,7 @@
         <v>2547</v>
       </c>
       <c r="K368" t="n">
-        <v>25.25252525252525</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L368" t="n">
         <v>766.4</v>
@@ -19047,7 +19069,7 @@
         <v>2548</v>
       </c>
       <c r="K369" t="n">
-        <v>23.23232323232323</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L369" t="n">
         <v>766.8</v>
@@ -19098,7 +19120,7 @@
         <v>2555</v>
       </c>
       <c r="K370" t="n">
-        <v>2.173913043478261</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L370" t="n">
         <v>766.5</v>
@@ -19149,7 +19171,7 @@
         <v>2565</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.081632653061225</v>
+        <v>-31.81818181818182</v>
       </c>
       <c r="L371" t="n">
         <v>764.8</v>
@@ -19200,7 +19222,7 @@
         <v>2569</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111111</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L372" t="n">
         <v>763</v>
@@ -19251,7 +19273,7 @@
         <v>2573</v>
       </c>
       <c r="K373" t="n">
-        <v>2.325581395348837</v>
+        <v>-60.86956521739131</v>
       </c>
       <c r="L373" t="n">
         <v>760.6</v>
@@ -19302,7 +19324,7 @@
         <v>2576</v>
       </c>
       <c r="K374" t="n">
-        <v>-16.66666666666666</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L374" t="n">
         <v>758.1</v>
@@ -19353,7 +19375,7 @@
         <v>2577</v>
       </c>
       <c r="K375" t="n">
-        <v>-16.66666666666666</v>
+        <v>-74.19354838709677</v>
       </c>
       <c r="L375" t="n">
         <v>756.6</v>
@@ -19404,7 +19426,7 @@
         <v>2585</v>
       </c>
       <c r="K376" t="n">
-        <v>-6.329113924050633</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L376" t="n">
         <v>755.1</v>
@@ -19455,7 +19477,7 @@
         <v>2591</v>
       </c>
       <c r="K377" t="n">
-        <v>-2.439024390243902</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L377" t="n">
         <v>754.2</v>
@@ -19506,7 +19528,7 @@
         <v>2595</v>
       </c>
       <c r="K378" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L378" t="n">
         <v>752.8</v>
@@ -19557,7 +19579,7 @@
         <v>2603</v>
       </c>
       <c r="K379" t="n">
-        <v>-19.10112359550562</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L379" t="n">
         <v>750.7</v>
@@ -19608,7 +19630,7 @@
         <v>2620</v>
       </c>
       <c r="K380" t="n">
-        <v>-32.0754716981132</v>
+        <v>-38.18181818181819</v>
       </c>
       <c r="L380" t="n">
         <v>747.6</v>
@@ -19659,7 +19681,7 @@
         <v>2625</v>
       </c>
       <c r="K381" t="n">
-        <v>-30.8411214953271</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L381" t="n">
         <v>746</v>
@@ -19710,7 +19732,7 @@
         <v>2626</v>
       </c>
       <c r="K382" t="n">
-        <v>-29.52380952380953</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L382" t="n">
         <v>744.7</v>
@@ -19761,7 +19783,7 @@
         <v>2626</v>
       </c>
       <c r="K383" t="n">
-        <v>-32.03883495145632</v>
+        <v>-24</v>
       </c>
       <c r="L383" t="n">
         <v>743.8</v>
@@ -19812,7 +19834,7 @@
         <v>2632</v>
       </c>
       <c r="K384" t="n">
-        <v>-29.52380952380953</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L384" t="n">
         <v>743.2</v>
@@ -19863,7 +19885,7 @@
         <v>2637</v>
       </c>
       <c r="K385" t="n">
-        <v>-15.15151515151515</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L385" t="n">
         <v>743.2</v>
@@ -19914,7 +19936,7 @@
         <v>2648</v>
       </c>
       <c r="K386" t="n">
-        <v>-33.33333333333333</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L386" t="n">
         <v>741.3</v>
@@ -19965,7 +19987,7 @@
         <v>2655</v>
       </c>
       <c r="K387" t="n">
-        <v>-37.61467889908257</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L387" t="n">
         <v>738.1</v>
@@ -20016,7 +20038,7 @@
         <v>2664</v>
       </c>
       <c r="K388" t="n">
-        <v>-28.2051282051282</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L388" t="n">
         <v>736.2</v>
@@ -20067,7 +20089,7 @@
         <v>2665</v>
       </c>
       <c r="K389" t="n">
-        <v>-26.4957264957265</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L389" t="n">
         <v>735.2</v>
@@ -20118,7 +20140,7 @@
         <v>2665</v>
       </c>
       <c r="K390" t="n">
-        <v>-21.81818181818182</v>
+        <v>5</v>
       </c>
       <c r="L390" t="n">
         <v>735.9</v>
@@ -20169,7 +20191,7 @@
         <v>2684</v>
       </c>
       <c r="K391" t="n">
-        <v>-27.73109243697479</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L391" t="n">
         <v>734.2</v>
@@ -20220,7 +20242,7 @@
         <v>2696</v>
       </c>
       <c r="K392" t="n">
-        <v>-13.38582677165354</v>
+        <v>-5.714285714285714</v>
       </c>
       <c r="L392" t="n">
         <v>733.8</v>
@@ -20271,7 +20293,7 @@
         <v>2705</v>
       </c>
       <c r="K393" t="n">
-        <v>-16.66666666666666</v>
+        <v>-26.02739726027397</v>
       </c>
       <c r="L393" t="n">
         <v>732.5</v>
@@ -20322,7 +20344,7 @@
         <v>2724</v>
       </c>
       <c r="K394" t="n">
-        <v>-4.054054054054054</v>
+        <v>-5.747126436781609</v>
       </c>
       <c r="L394" t="n">
         <v>732.5</v>
@@ -20373,7 +20395,7 @@
         <v>2738</v>
       </c>
       <c r="K395" t="n">
-        <v>-11.80124223602484</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="L395" t="n">
         <v>730.6</v>
@@ -20424,7 +20446,7 @@
         <v>2744</v>
       </c>
       <c r="K396" t="n">
-        <v>-13.20754716981132</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="L396" t="n">
         <v>730.4</v>
@@ -20475,7 +20497,7 @@
         <v>2744</v>
       </c>
       <c r="K397" t="n">
-        <v>-17.64705882352941</v>
+        <v>-5</v>
       </c>
       <c r="L397" t="n">
         <v>730.9</v>
@@ -20526,7 +20548,7 @@
         <v>2750</v>
       </c>
       <c r="K398" t="n">
-        <v>-10.96774193548387</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L398" t="n">
         <v>731.1</v>
@@ -20577,7 +20599,7 @@
         <v>2752</v>
       </c>
       <c r="K399" t="n">
-        <v>-4.697986577181208</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L399" t="n">
         <v>731.4</v>
@@ -20628,7 +20650,7 @@
         <v>2758</v>
       </c>
       <c r="K400" t="n">
-        <v>11.59420289855072</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="L400" t="n">
         <v>732.3</v>
@@ -20679,7 +20701,7 @@
         <v>2760</v>
       </c>
       <c r="K401" t="n">
-        <v>9.62962962962963</v>
+        <v>28.125</v>
       </c>
       <c r="L401" t="n">
         <v>735.3</v>
@@ -20730,7 +20752,7 @@
         <v>2762</v>
       </c>
       <c r="K402" t="n">
-        <v>11.76470588235294</v>
+        <v>50.87719298245614</v>
       </c>
       <c r="L402" t="n">
         <v>737.3</v>
@@ -20781,7 +20803,7 @@
         <v>2766</v>
       </c>
       <c r="K403" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L403" t="n">
         <v>740.6</v>
@@ -20832,7 +20854,7 @@
         <v>2768</v>
       </c>
       <c r="K404" t="n">
-        <v>8.823529411764707</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L404" t="n">
         <v>741.8</v>
@@ -20883,7 +20905,7 @@
         <v>2768</v>
       </c>
       <c r="K405" t="n">
-        <v>5.343511450381679</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L405" t="n">
         <v>744.4</v>
@@ -20934,7 +20956,7 @@
         <v>2770</v>
       </c>
       <c r="K406" t="n">
-        <v>16.39344262295082</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L406" t="n">
         <v>746.6</v>
@@ -20985,7 +21007,7 @@
         <v>2775</v>
       </c>
       <c r="K407" t="n">
-        <v>18.33333333333333</v>
+        <v>44</v>
       </c>
       <c r="L407" t="n">
         <v>748.3</v>
@@ -21036,7 +21058,7 @@
         <v>2777</v>
       </c>
       <c r="K408" t="n">
-        <v>13.27433628318584</v>
+        <v>44</v>
       </c>
       <c r="L408" t="n">
         <v>749.6</v>
@@ -21087,7 +21109,7 @@
         <v>2778</v>
       </c>
       <c r="K409" t="n">
-        <v>11.50442477876106</v>
+        <v>20</v>
       </c>
       <c r="L409" t="n">
         <v>750.6</v>
@@ -21138,7 +21160,7 @@
         <v>2780</v>
       </c>
       <c r="K410" t="n">
-        <v>9.565217391304348</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>750.8</v>
@@ -21189,7 +21211,7 @@
         <v>2783</v>
       </c>
       <c r="K411" t="n">
-        <v>27.27272727272727</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L411" t="n">
         <v>750.5</v>
@@ -21240,7 +21262,7 @@
         <v>2787</v>
       </c>
       <c r="K412" t="n">
-        <v>12.08791208791209</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L412" t="n">
         <v>749.6</v>
@@ -21291,7 +21313,7 @@
         <v>2788</v>
       </c>
       <c r="K413" t="n">
-        <v>25.30120481927711</v>
+        <v>-50</v>
       </c>
       <c r="L413" t="n">
         <v>748.4</v>
@@ -21342,7 +21364,7 @@
         <v>2792</v>
       </c>
       <c r="K414" t="n">
-        <v>-2.941176470588235</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L414" t="n">
         <v>747</v>
@@ -21393,7 +21415,7 @@
         <v>2808</v>
       </c>
       <c r="K415" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>747.2</v>
@@ -21444,7 +21466,7 @@
         <v>2815</v>
       </c>
       <c r="K416" t="n">
-        <v>40.84507042253522</v>
+        <v>30</v>
       </c>
       <c r="L416" t="n">
         <v>747.9</v>
@@ -21495,7 +21517,7 @@
         <v>2823</v>
       </c>
       <c r="K417" t="n">
-        <v>26.58227848101265</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L417" t="n">
         <v>748.3</v>
@@ -21546,7 +21568,7 @@
         <v>2828</v>
       </c>
       <c r="K418" t="n">
-        <v>25.64102564102564</v>
+        <v>16</v>
       </c>
       <c r="L418" t="n">
         <v>749</v>
@@ -21597,7 +21619,7 @@
         <v>2838</v>
       </c>
       <c r="K419" t="n">
-        <v>9.302325581395349</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>748.8</v>
@@ -21648,7 +21670,7 @@
         <v>2841</v>
       </c>
       <c r="K420" t="n">
-        <v>-1.204819277108434</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>748.5</v>
@@ -21699,7 +21721,7 @@
         <v>2843</v>
       </c>
       <c r="K421" t="n">
-        <v>-6.024096385542169</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L421" t="n">
         <v>748.3</v>
@@ -21750,7 +21772,7 @@
         <v>2848</v>
       </c>
       <c r="K422" t="n">
-        <v>-13.95348837209302</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L422" t="n">
         <v>748</v>
@@ -21801,7 +21823,7 @@
         <v>2854</v>
       </c>
       <c r="K423" t="n">
-        <v>-25</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L423" t="n">
         <v>747</v>
@@ -21852,7 +21874,7 @@
         <v>2866</v>
       </c>
       <c r="K424" t="n">
-        <v>-8.163265306122449</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L424" t="n">
         <v>747.6</v>
@@ -21903,7 +21925,7 @@
         <v>2867</v>
       </c>
       <c r="K425" t="n">
-        <v>-9.090909090909092</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L425" t="n">
         <v>746.5</v>
@@ -21954,7 +21976,7 @@
         <v>2879</v>
       </c>
       <c r="K426" t="n">
-        <v>0.9174311926605505</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L426" t="n">
         <v>745.9</v>
@@ -22005,7 +22027,7 @@
         <v>2880</v>
       </c>
       <c r="K427" t="n">
-        <v>4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L427" t="n">
         <v>746</v>
@@ -22056,7 +22078,7 @@
         <v>2880</v>
       </c>
       <c r="K428" t="n">
-        <v>2.912621359223301</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L428" t="n">
         <v>745.6</v>
@@ -22107,7 +22129,7 @@
         <v>2881</v>
       </c>
       <c r="K429" t="n">
-        <v>2.912621359223301</v>
+        <v>20</v>
       </c>
       <c r="L429" t="n">
         <v>746.1</v>
@@ -22158,7 +22180,7 @@
         <v>2892</v>
       </c>
       <c r="K430" t="n">
-        <v>-5.357142857142857</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L430" t="n">
         <v>745.8</v>
@@ -22209,7 +22231,7 @@
         <v>2898</v>
       </c>
       <c r="K431" t="n">
-        <v>2.608695652173913</v>
+        <v>20</v>
       </c>
       <c r="L431" t="n">
         <v>746.3</v>
@@ -22260,7 +22282,7 @@
         <v>2898</v>
       </c>
       <c r="K432" t="n">
-        <v>6.306306306306306</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L432" t="n">
         <v>747.3</v>
@@ -22311,7 +22333,7 @@
         <v>2898</v>
       </c>
       <c r="K433" t="n">
-        <v>5.454545454545454</v>
+        <v>12.5</v>
       </c>
       <c r="L433" t="n">
         <v>748.9</v>
@@ -22362,7 +22384,7 @@
         <v>2898</v>
       </c>
       <c r="K434" t="n">
-        <v>9.433962264150944</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L434" t="n">
         <v>749.3</v>
@@ -22413,7 +22435,7 @@
         <v>2898</v>
       </c>
       <c r="K435" t="n">
-        <v>-6.666666666666667</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L435" t="n">
         <v>749.8</v>
@@ -22464,7 +22486,7 @@
         <v>2899</v>
       </c>
       <c r="K436" t="n">
-        <v>-16.66666666666666</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L436" t="n">
         <v>749</v>
@@ -22515,7 +22537,7 @@
         <v>2900</v>
       </c>
       <c r="K437" t="n">
-        <v>-9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L437" t="n">
         <v>748.2</v>
@@ -22566,7 +22588,7 @@
         <v>2907</v>
       </c>
       <c r="K438" t="n">
-        <v>-6.329113924050633</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>748.1</v>
@@ -22617,7 +22639,7 @@
         <v>2910</v>
       </c>
       <c r="K439" t="n">
-        <v>2.777777777777778</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L439" t="n">
         <v>747.8</v>
@@ -22668,7 +22690,7 @@
         <v>2915</v>
       </c>
       <c r="K440" t="n">
-        <v>13.51351351351351</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L440" t="n">
         <v>749.1</v>
@@ -22719,7 +22741,7 @@
         <v>2924</v>
       </c>
       <c r="K441" t="n">
-        <v>3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L441" t="n">
         <v>748.9</v>
@@ -22770,7 +22792,7 @@
         <v>2930</v>
       </c>
       <c r="K442" t="n">
-        <v>17.07317073170732</v>
+        <v>12.5</v>
       </c>
       <c r="L442" t="n">
         <v>749.3</v>
@@ -22821,7 +22843,7 @@
         <v>2932</v>
       </c>
       <c r="K443" t="n">
-        <v>28.2051282051282</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L443" t="n">
         <v>749.9</v>
@@ -22872,7 +22894,7 @@
         <v>2937</v>
       </c>
       <c r="K444" t="n">
-        <v>7.042253521126761</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L444" t="n">
         <v>750</v>
@@ -22923,7 +22945,7 @@
         <v>2939</v>
       </c>
       <c r="K445" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>749.9</v>
@@ -22974,7 +22996,7 @@
         <v>2939</v>
       </c>
       <c r="K446" t="n">
-        <v>-13.33333333333333</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L446" t="n">
         <v>749.9</v>
@@ -23025,7 +23047,7 @@
         <v>2941</v>
       </c>
       <c r="K447" t="n">
-        <v>-8.196721311475409</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L447" t="n">
         <v>750.2</v>
@@ -23076,7 +23098,7 @@
         <v>2943</v>
       </c>
       <c r="K448" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L448" t="n">
         <v>749.6</v>
@@ -23127,7 +23149,7 @@
         <v>2946</v>
       </c>
       <c r="K449" t="n">
-        <v>-13.84615384615385</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L449" t="n">
         <v>749</v>
@@ -23178,7 +23200,7 @@
         <v>2949</v>
       </c>
       <c r="K450" t="n">
-        <v>-1.754385964912281</v>
+        <v>-20</v>
       </c>
       <c r="L450" t="n">
         <v>747.6</v>
@@ -23229,7 +23251,7 @@
         <v>2958</v>
       </c>
       <c r="K451" t="n">
-        <v>-26.66666666666667</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L451" t="n">
         <v>746.2</v>
@@ -23280,7 +23302,7 @@
         <v>2959</v>
       </c>
       <c r="K452" t="n">
-        <v>-27.86885245901639</v>
+        <v>-85.18518518518519</v>
       </c>
       <c r="L452" t="n">
         <v>744.1</v>
@@ -23331,7 +23353,7 @@
         <v>2965</v>
       </c>
       <c r="K453" t="n">
-        <v>-34.32835820895522</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L453" t="n">
         <v>741.2</v>
@@ -23382,7 +23404,7 @@
         <v>2977</v>
       </c>
       <c r="K454" t="n">
-        <v>-13.92405063291139</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L454" t="n">
         <v>740</v>
@@ -23433,7 +23455,7 @@
         <v>2987</v>
       </c>
       <c r="K455" t="n">
-        <v>-1.123595505617978</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>740</v>
@@ -23484,7 +23506,7 @@
         <v>2990</v>
       </c>
       <c r="K456" t="n">
-        <v>3.296703296703297</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L456" t="n">
         <v>740.3</v>
@@ -23535,7 +23557,7 @@
         <v>2992</v>
       </c>
       <c r="K457" t="n">
-        <v>6.521739130434782</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L457" t="n">
         <v>740.6</v>
@@ -23586,7 +23608,7 @@
         <v>2996</v>
       </c>
       <c r="K458" t="n">
-        <v>-5.617977528089887</v>
+        <v>8</v>
       </c>
       <c r="L458" t="n">
         <v>740.7</v>
@@ -23637,7 +23659,7 @@
         <v>3003</v>
       </c>
       <c r="K459" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L459" t="n">
         <v>740.4</v>
@@ -23688,7 +23710,7 @@
         <v>3016</v>
       </c>
       <c r="K460" t="n">
-        <v>-26.73267326732674</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L460" t="n">
         <v>739.1</v>
@@ -23739,7 +23761,7 @@
         <v>3026</v>
       </c>
       <c r="K461" t="n">
-        <v>-7.84313725490196</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L461" t="n">
         <v>739.7</v>
@@ -23790,7 +23812,7 @@
         <v>3027</v>
       </c>
       <c r="K462" t="n">
-        <v>-13.4020618556701</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L462" t="n">
         <v>740.5</v>
@@ -23841,7 +23863,7 @@
         <v>3027</v>
       </c>
       <c r="K463" t="n">
-        <v>-15.78947368421053</v>
+        <v>4</v>
       </c>
       <c r="L463" t="n">
         <v>741.9</v>
@@ -23892,7 +23914,7 @@
         <v>3040</v>
       </c>
       <c r="K464" t="n">
-        <v>-22.33009708737864</v>
+        <v>-39.62264150943396</v>
       </c>
       <c r="L464" t="n">
         <v>740.8</v>
@@ -23943,7 +23965,7 @@
         <v>3041</v>
       </c>
       <c r="K465" t="n">
-        <v>-21.56862745098039</v>
+        <v>-49.01960784313725</v>
       </c>
       <c r="L465" t="n">
         <v>738.6</v>
@@ -23994,7 +24016,7 @@
         <v>3046</v>
       </c>
       <c r="K466" t="n">
-        <v>-25.23364485981308</v>
+        <v>-59.25925925925925</v>
       </c>
       <c r="L466" t="n">
         <v>735.6</v>
@@ -24045,7 +24067,7 @@
         <v>3048</v>
       </c>
       <c r="K467" t="n">
-        <v>-25.23364485981308</v>
+        <v>-50</v>
       </c>
       <c r="L467" t="n">
         <v>732.6</v>
@@ -24096,7 +24118,7 @@
         <v>3048</v>
       </c>
       <c r="K468" t="n">
-        <v>-23.80952380952381</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L468" t="n">
         <v>730</v>
@@ -24147,7 +24169,7 @@
         <v>3048</v>
       </c>
       <c r="K469" t="n">
-        <v>-21.56862745098039</v>
+        <v>-18.75</v>
       </c>
       <c r="L469" t="n">
         <v>728.1</v>
@@ -24198,7 +24220,7 @@
         <v>3049</v>
       </c>
       <c r="K470" t="n">
-        <v>-18</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L470" t="n">
         <v>727.6</v>
@@ -24249,7 +24271,7 @@
         <v>3054</v>
       </c>
       <c r="K471" t="n">
-        <v>-4.166666666666666</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L471" t="n">
         <v>726.6</v>
@@ -24300,7 +24322,7 @@
         <v>3062</v>
       </c>
       <c r="K472" t="n">
-        <v>4.854368932038835</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L472" t="n">
         <v>726.3</v>
@@ -24351,7 +24373,7 @@
         <v>3070</v>
       </c>
       <c r="K473" t="n">
-        <v>2.857142857142857</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L473" t="n">
         <v>725.2</v>
@@ -24402,7 +24424,7 @@
         <v>3085</v>
       </c>
       <c r="K474" t="n">
-        <v>5.555555555555555</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="L474" t="n">
         <v>726.9</v>
@@ -24453,7 +24475,7 @@
         <v>3087</v>
       </c>
       <c r="K475" t="n">
-        <v>-2</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L475" t="n">
         <v>728.9</v>
@@ -24504,7 +24526,7 @@
         <v>3088</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.122448979591836</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="L476" t="n">
         <v>731.3</v>
@@ -24555,7 +24577,7 @@
         <v>3089</v>
       </c>
       <c r="K477" t="n">
-        <v>-7.216494845360824</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L477" t="n">
         <v>733.6</v>
@@ -24606,7 +24628,7 @@
         <v>3093</v>
       </c>
       <c r="K478" t="n">
-        <v>-7.216494845360824</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L478" t="n">
         <v>735.5</v>
@@ -24657,7 +24679,7 @@
         <v>3094</v>
       </c>
       <c r="K479" t="n">
-        <v>-1.098901098901099</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L479" t="n">
         <v>737.3</v>
@@ -24708,7 +24730,7 @@
         <v>3094</v>
       </c>
       <c r="K480" t="n">
-        <v>15.38461538461539</v>
+        <v>30</v>
       </c>
       <c r="L480" t="n">
         <v>739</v>
@@ -24759,7 +24781,7 @@
         <v>3099</v>
       </c>
       <c r="K481" t="n">
-        <v>-4.10958904109589</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L481" t="n">
         <v>739.7</v>
@@ -24810,7 +24832,7 @@
         <v>3127</v>
       </c>
       <c r="K482" t="n">
-        <v>-32</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L482" t="n">
         <v>736.8</v>
@@ -24861,7 +24883,7 @@
         <v>3144</v>
       </c>
       <c r="K483" t="n">
-        <v>-12.82051282051282</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L483" t="n">
         <v>736.4</v>
@@ -24912,7 +24934,7 @@
         <v>3148</v>
       </c>
       <c r="K484" t="n">
-        <v>1.851851851851852</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L484" t="n">
         <v>734.9</v>
@@ -24963,7 +24985,7 @@
         <v>3167</v>
       </c>
       <c r="K485" t="n">
-        <v>-12.6984126984127</v>
+        <v>-44.30379746835442</v>
       </c>
       <c r="L485" t="n">
         <v>731.3</v>
@@ -25014,7 +25036,7 @@
         <v>3169</v>
       </c>
       <c r="K486" t="n">
-        <v>-7.317073170731707</v>
+        <v>-42.5</v>
       </c>
       <c r="L486" t="n">
         <v>728</v>
@@ -25065,7 +25087,7 @@
         <v>3172</v>
       </c>
       <c r="K487" t="n">
-        <v>-6.451612903225806</v>
+        <v>-34.17721518987342</v>
       </c>
       <c r="L487" t="n">
         <v>724.9</v>
@@ -25116,7 +25138,7 @@
         <v>3174</v>
       </c>
       <c r="K488" t="n">
-        <v>-7.936507936507936</v>
+        <v>-35</v>
       </c>
       <c r="L488" t="n">
         <v>722</v>
@@ -25167,7 +25189,7 @@
         <v>3175</v>
       </c>
       <c r="K489" t="n">
-        <v>-8.661417322834646</v>
+        <v>-35.80246913580247</v>
       </c>
       <c r="L489" t="n">
         <v>719.1</v>
@@ -25218,7 +25240,7 @@
         <v>3178</v>
       </c>
       <c r="K490" t="n">
-        <v>-11.62790697674419</v>
+        <v>-34.17721518987342</v>
       </c>
       <c r="L490" t="n">
         <v>715.9</v>
@@ -25269,7 +25291,7 @@
         <v>3181</v>
       </c>
       <c r="K491" t="n">
-        <v>-13.38582677165354</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L491" t="n">
         <v>713.5</v>
@@ -25320,7 +25342,7 @@
         <v>3187</v>
       </c>
       <c r="K492" t="n">
-        <v>-24.8</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L492" t="n">
         <v>713.3</v>
@@ -25371,7 +25393,7 @@
         <v>3196</v>
       </c>
       <c r="K493" t="n">
-        <v>-11.11111111111111</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L493" t="n">
         <v>712.3</v>
@@ -25422,7 +25444,7 @@
         <v>3201</v>
       </c>
       <c r="K494" t="n">
-        <v>-20.68965517241379</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L494" t="n">
         <v>711.4</v>
@@ -25473,7 +25495,7 @@
         <v>3201</v>
       </c>
       <c r="K495" t="n">
-        <v>-22.80701754385965</v>
+        <v>25</v>
       </c>
       <c r="L495" t="n">
         <v>712.4</v>
@@ -25524,7 +25546,7 @@
         <v>3203</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.47826086956522</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L496" t="n">
         <v>713</v>
@@ -25575,7 +25597,7 @@
         <v>3203</v>
       </c>
       <c r="K497" t="n">
-        <v>-24.56140350877193</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L497" t="n">
         <v>713.3</v>
@@ -25626,7 +25648,7 @@
         <v>3209</v>
       </c>
       <c r="K498" t="n">
-        <v>-25.86206896551724</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>713.2</v>
@@ -25677,7 +25699,7 @@
         <v>3215</v>
       </c>
       <c r="K499" t="n">
-        <v>-19.00826446280992</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L499" t="n">
         <v>713.8</v>
@@ -25728,7 +25750,7 @@
         <v>3221</v>
       </c>
       <c r="K500" t="n">
-        <v>-13.38582677165354</v>
+        <v>30</v>
       </c>
       <c r="L500" t="n">
         <v>715.3</v>
@@ -25779,7 +25801,7 @@
         <v>3222</v>
       </c>
       <c r="K501" t="n">
-        <v>-8.943089430894309</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L501" t="n">
         <v>716.6</v>
@@ -25830,7 +25852,7 @@
         <v>3222</v>
       </c>
       <c r="K502" t="n">
-        <v>17.89473684210526</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L502" t="n">
         <v>718.5</v>
@@ -25881,7 +25903,7 @@
         <v>3222</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L503" t="n">
         <v>719.5</v>
@@ -25932,7 +25954,7 @@
         <v>3223</v>
       </c>
       <c r="K504" t="n">
-        <v>-4</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L504" t="n">
         <v>720.1</v>
@@ -25983,7 +26005,7 @@
         <v>3223</v>
       </c>
       <c r="K505" t="n">
-        <v>28.57142857142857</v>
+        <v>40</v>
       </c>
       <c r="L505" t="n">
         <v>720.7</v>
@@ -26034,7 +26056,7 @@
         <v>3225</v>
       </c>
       <c r="K506" t="n">
-        <v>21.42857142857143</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L506" t="n">
         <v>721.3</v>
@@ -26085,7 +26107,7 @@
         <v>3227</v>
       </c>
       <c r="K507" t="n">
-        <v>20</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L507" t="n">
         <v>722.1</v>
@@ -26136,7 +26158,7 @@
         <v>3227</v>
       </c>
       <c r="K508" t="n">
-        <v>24.52830188679245</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L508" t="n">
         <v>723.5</v>
@@ -26187,7 +26209,7 @@
         <v>3232</v>
       </c>
       <c r="K509" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L509" t="n">
         <v>724.8</v>
@@ -26238,7 +26260,7 @@
         <v>3233</v>
       </c>
       <c r="K510" t="n">
-        <v>41.81818181818181</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L510" t="n">
         <v>725.6</v>
@@ -26289,7 +26311,7 @@
         <v>3249</v>
       </c>
       <c r="K511" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L511" t="n">
         <v>724.7</v>
@@ -26340,7 +26362,7 @@
         <v>3252</v>
       </c>
       <c r="K512" t="n">
-        <v>10.76923076923077</v>
+        <v>-40</v>
       </c>
       <c r="L512" t="n">
         <v>723.5</v>
@@ -26391,7 +26413,7 @@
         <v>3264</v>
       </c>
       <c r="K513" t="n">
-        <v>14.70588235294118</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L513" t="n">
         <v>723.5</v>
@@ -26442,7 +26464,7 @@
         <v>3267</v>
       </c>
       <c r="K514" t="n">
-        <v>12.12121212121212</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L514" t="n">
         <v>723.7</v>
@@ -26493,7 +26515,7 @@
         <v>3275</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="L515" t="n">
         <v>723.1</v>
@@ -26544,7 +26566,7 @@
         <v>3286</v>
       </c>
       <c r="K516" t="n">
-        <v>15.66265060240964</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L516" t="n">
         <v>723.8</v>
@@ -26595,7 +26617,7 @@
         <v>3294</v>
       </c>
       <c r="K517" t="n">
-        <v>5.494505494505495</v>
+        <v>-4.477611940298507</v>
       </c>
       <c r="L517" t="n">
         <v>723.5</v>
@@ -26646,7 +26668,7 @@
         <v>3301</v>
       </c>
       <c r="K518" t="n">
-        <v>4.347826086956522</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L518" t="n">
         <v>722.5</v>
@@ -26697,7 +26719,7 @@
         <v>3301</v>
       </c>
       <c r="K519" t="n">
-        <v>-2.325581395348837</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L519" t="n">
         <v>721</v>
@@ -26748,7 +26770,7 @@
         <v>3310</v>
       </c>
       <c r="K520" t="n">
-        <v>1.123595505617978</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="L520" t="n">
         <v>720.3</v>
@@ -26799,7 +26821,7 @@
         <v>3321</v>
       </c>
       <c r="K521" t="n">
-        <v>-11.11111111111111</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="L521" t="n">
         <v>720.1</v>
@@ -26850,7 +26872,7 @@
         <v>3326</v>
       </c>
       <c r="K522" t="n">
-        <v>-15.38461538461539</v>
+        <v>-25.80645161290322</v>
       </c>
       <c r="L522" t="n">
         <v>719.7</v>
@@ -26901,7 +26923,7 @@
         <v>3346</v>
       </c>
       <c r="K523" t="n">
-        <v>3.225806451612903</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="L523" t="n">
         <v>720.1</v>
@@ -26952,7 +26974,7 @@
         <v>3348</v>
       </c>
       <c r="K524" t="n">
-        <v>4</v>
+        <v>15.06849315068493</v>
       </c>
       <c r="L524" t="n">
         <v>720.4</v>
@@ -27003,7 +27025,7 @@
         <v>3348</v>
       </c>
       <c r="K525" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>721.5</v>
@@ -27054,7 +27076,7 @@
         <v>3352</v>
       </c>
       <c r="K526" t="n">
-        <v>2.362204724409449</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L526" t="n">
         <v>721.1</v>
@@ -27105,7 +27127,7 @@
         <v>3353</v>
       </c>
       <c r="K527" t="n">
-        <v>1.587301587301587</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L527" t="n">
         <v>721.6</v>
@@ -27156,7 +27178,7 @@
         <v>3353</v>
       </c>
       <c r="K528" t="n">
-        <v>1.587301587301587</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L528" t="n">
         <v>722.8</v>
@@ -27207,7 +27229,7 @@
         <v>3357</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L529" t="n">
         <v>723.6</v>
@@ -27258,7 +27280,7 @@
         <v>3367</v>
       </c>
       <c r="K530" t="n">
-        <v>-13.43283582089552</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>722.5</v>
@@ -27309,7 +27331,7 @@
         <v>3380</v>
       </c>
       <c r="K531" t="n">
-        <v>8.396946564885496</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L531" t="n">
         <v>723.8</v>
@@ -27360,7 +27382,7 @@
         <v>3384</v>
       </c>
       <c r="K532" t="n">
-        <v>7.575757575757576</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L532" t="n">
         <v>725.2</v>
@@ -27411,7 +27433,7 @@
         <v>3385</v>
       </c>
       <c r="K533" t="n">
-        <v>-2.479338842975207</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L533" t="n">
         <v>724.5</v>
@@ -27462,7 +27484,7 @@
         <v>3386</v>
       </c>
       <c r="K534" t="n">
-        <v>-5.88235294117647</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L534" t="n">
         <v>723.5</v>
@@ -27513,7 +27535,7 @@
         <v>3395</v>
       </c>
       <c r="K535" t="n">
-        <v>-6.666666666666667</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L535" t="n">
         <v>721.6</v>
@@ -27564,7 +27586,7 @@
         <v>3397</v>
       </c>
       <c r="K536" t="n">
-        <v>-18.91891891891892</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L536" t="n">
         <v>719.9</v>
@@ -27615,7 +27637,7 @@
         <v>3399</v>
       </c>
       <c r="K537" t="n">
-        <v>-14.28571428571428</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L537" t="n">
         <v>717.9</v>
@@ -27666,7 +27688,7 @@
         <v>3402</v>
       </c>
       <c r="K538" t="n">
-        <v>-4.95049504950495</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L538" t="n">
         <v>716.2</v>
@@ -27717,7 +27739,7 @@
         <v>3402</v>
       </c>
       <c r="K539" t="n">
-        <v>-4.95049504950495</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L539" t="n">
         <v>714.9</v>
@@ -27768,7 +27790,7 @@
         <v>3404</v>
       </c>
       <c r="K540" t="n">
-        <v>-17.02127659574468</v>
+        <v>-75</v>
       </c>
       <c r="L540" t="n">
         <v>714.4</v>
@@ -27819,7 +27841,7 @@
         <v>3404</v>
       </c>
       <c r="K541" t="n">
-        <v>-6.024096385542169</v>
+        <v>-70</v>
       </c>
       <c r="L541" t="n">
         <v>712.6</v>
@@ -27870,7 +27892,7 @@
         <v>3405</v>
       </c>
       <c r="K542" t="n">
-        <v>-1.265822784810127</v>
+        <v>-70</v>
       </c>
       <c r="L542" t="n">
         <v>711.1</v>
@@ -27921,7 +27943,7 @@
         <v>3405</v>
       </c>
       <c r="K543" t="n">
-        <v>-35.59322033898305</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L543" t="n">
         <v>709.7</v>
@@ -27972,7 +27994,7 @@
         <v>3409</v>
       </c>
       <c r="K544" t="n">
-        <v>-31.14754098360656</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>708.8</v>
@@ -28023,7 +28045,7 @@
         <v>3410</v>
       </c>
       <c r="K545" t="n">
-        <v>-32.25806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L545" t="n">
         <v>708.7</v>
@@ -28074,7 +28096,7 @@
         <v>3414</v>
       </c>
       <c r="K546" t="n">
-        <v>-19.35483870967742</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L546" t="n">
         <v>709.2</v>
@@ -28125,7 +28147,7 @@
         <v>3418</v>
       </c>
       <c r="K547" t="n">
-        <v>-26.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>709.5</v>
@@ -28176,7 +28198,7 @@
         <v>3418</v>
       </c>
       <c r="K548" t="n">
-        <v>-26.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>709.5</v>
@@ -28227,7 +28249,7 @@
         <v>3419</v>
       </c>
       <c r="K549" t="n">
-        <v>-22.58064516129032</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L549" t="n">
         <v>709.4</v>
@@ -28278,7 +28300,7 @@
         <v>3423</v>
       </c>
       <c r="K550" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L550" t="n">
         <v>709.9</v>
@@ -28329,7 +28351,7 @@
         <v>3423</v>
       </c>
       <c r="K551" t="n">
-        <v>-30.23255813953488</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L551" t="n">
         <v>710.4</v>
@@ -28380,7 +28402,7 @@
         <v>3426</v>
       </c>
       <c r="K552" t="n">
-        <v>-28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L552" t="n">
         <v>710.7</v>
@@ -28431,7 +28453,7 @@
         <v>3427</v>
       </c>
       <c r="K553" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>711.1</v>
@@ -28482,7 +28504,7 @@
         <v>3429</v>
       </c>
       <c r="K554" t="n">
-        <v>-16.27906976744186</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L554" t="n">
         <v>711.3</v>
@@ -28533,7 +28555,7 @@
         <v>3431</v>
       </c>
       <c r="K555" t="n">
-        <v>11.11111111111111</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L555" t="n">
         <v>711.8</v>
@@ -28584,7 +28606,7 @@
         <v>3436</v>
       </c>
       <c r="K556" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>711.4</v>
@@ -28635,7 +28657,7 @@
         <v>3440</v>
       </c>
       <c r="K557" t="n">
-        <v>17.07317073170732</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L557" t="n">
         <v>711.8</v>
@@ -28686,7 +28708,7 @@
         <v>3444</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L558" t="n">
         <v>711.8</v>
@@ -28737,7 +28759,7 @@
         <v>3445</v>
       </c>
       <c r="K559" t="n">
-        <v>2.325581395348837</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L559" t="n">
         <v>712</v>
@@ -28788,7 +28810,7 @@
         <v>3446</v>
       </c>
       <c r="K560" t="n">
-        <v>9.523809523809524</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L560" t="n">
         <v>711.9</v>
@@ -28839,7 +28861,7 @@
         <v>3456</v>
       </c>
       <c r="K561" t="n">
-        <v>-11.53846153846154</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L561" t="n">
         <v>710.8</v>
@@ -28890,7 +28912,7 @@
         <v>3462</v>
       </c>
       <c r="K562" t="n">
-        <v>-19.29824561403509</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L562" t="n">
         <v>709.4</v>
@@ -28941,7 +28963,7 @@
         <v>3465</v>
       </c>
       <c r="K563" t="n">
-        <v>-23.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L563" t="n">
         <v>707.6</v>
@@ -28992,7 +29014,7 @@
         <v>3471</v>
       </c>
       <c r="K564" t="n">
-        <v>-19.35483870967742</v>
+        <v>-40</v>
       </c>
       <c r="L564" t="n">
         <v>706.2</v>
@@ -29043,7 +29065,7 @@
         <v>3476</v>
       </c>
       <c r="K565" t="n">
-        <v>-24.24242424242424</v>
+        <v>-40</v>
       </c>
       <c r="L565" t="n">
         <v>704.1</v>
@@ -29094,7 +29116,7 @@
         <v>3478</v>
       </c>
       <c r="K566" t="n">
-        <v>-34.375</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L566" t="n">
         <v>702.3</v>
@@ -29145,7 +29167,7 @@
         <v>3483</v>
       </c>
       <c r="K567" t="n">
-        <v>-35.38461538461539</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L567" t="n">
         <v>699.6</v>
@@ -29196,7 +29218,7 @@
         <v>3484</v>
       </c>
       <c r="K568" t="n">
-        <v>-33.33333333333333</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L568" t="n">
         <v>697.4</v>
@@ -29247,7 +29269,7 @@
         <v>3489</v>
       </c>
       <c r="K569" t="n">
-        <v>-22.85714285714286</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L569" t="n">
         <v>695.6</v>
@@ -29298,7 +29320,7 @@
         <v>3496</v>
       </c>
       <c r="K570" t="n">
-        <v>-17.80821917808219</v>
+        <v>-5</v>
       </c>
       <c r="L570" t="n">
         <v>694.4</v>
@@ -29349,7 +29371,7 @@
         <v>3510</v>
       </c>
       <c r="K571" t="n">
-        <v>-31.03448275862069</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L571" t="n">
         <v>692.8</v>
@@ -29400,7 +29422,7 @@
         <v>3510</v>
       </c>
       <c r="K572" t="n">
-        <v>-28.57142857142857</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L572" t="n">
         <v>691.8</v>
@@ -29451,7 +29473,7 @@
         <v>3513</v>
       </c>
       <c r="K573" t="n">
-        <v>-25.58139534883721</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L573" t="n">
         <v>691.4</v>
@@ -29502,7 +29524,7 @@
         <v>3514</v>
       </c>
       <c r="K574" t="n">
-        <v>-29.41176470588236</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L574" t="n">
         <v>690.3</v>
@@ -29553,7 +29575,7 @@
         <v>3536</v>
       </c>
       <c r="K575" t="n">
-        <v>-4.761904761904762</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L575" t="n">
         <v>691.9</v>
@@ -29604,7 +29626,7 @@
         <v>3552</v>
       </c>
       <c r="K576" t="n">
-        <v>-13.79310344827586</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L576" t="n">
         <v>692.1</v>
@@ -29655,7 +29677,7 @@
         <v>3570</v>
       </c>
       <c r="K577" t="n">
-        <v>-1.538461538461539</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="L577" t="n">
         <v>694.6</v>
@@ -29706,7 +29728,7 @@
         <v>3578</v>
       </c>
       <c r="K578" t="n">
-        <v>-4.477611940298507</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="L578" t="n">
         <v>696.2</v>

--- a/BackTest/2019-10-07 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-07 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15663.45548782859</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>22930.5916016814</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>690</v>
@@ -523,7 +523,7 @@
         <v>29385.5720016814</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>695</v>
@@ -562,7 +562,7 @@
         <v>47066.4996016814</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>701</v>
@@ -601,7 +601,7 @@
         <v>48416.1563016814</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>714</v>
@@ -640,7 +640,7 @@
         <v>42155.7043016814</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>720</v>
@@ -679,7 +679,7 @@
         <v>33875.6608016814</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>705</v>
@@ -718,7 +718,7 @@
         <v>34085.0378016814</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>684</v>
@@ -757,7 +757,7 @@
         <v>36057.4272878883</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>693</v>
@@ -796,7 +796,7 @@
         <v>40180.1491878883</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>699</v>
@@ -835,7 +835,7 @@
         <v>47617.0624878883</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>703</v>
@@ -874,7 +874,7 @@
         <v>51208.3013016814</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>706</v>
@@ -913,7 +913,7 @@
         <v>50087.3013016814</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>714</v>
@@ -952,7 +952,7 @@
         <v>45210.2576016814</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>710</v>
@@ -991,7 +991,7 @@
         <v>45849.8806016814</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>706</v>
@@ -1030,7 +1030,7 @@
         <v>45849.8806016814</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>719</v>
@@ -1069,9 +1069,11 @@
         <v>52943.20360168139</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>719</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,9 +1108,11 @@
         <v>43469.2436016814</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>726</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1143,9 +1147,11 @@
         <v>47114.50610168139</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>720</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1180,9 +1186,11 @@
         <v>104218.3289491011</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>724</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1365,9 +1373,11 @@
         <v>150797.8041294814</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>784</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1439,9 +1449,11 @@
         <v>109011.3929294814</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>755</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1476,9 +1488,11 @@
         <v>109067.9346294814</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>736</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1513,9 +1527,11 @@
         <v>101346.1518294814</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>741</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1550,9 +1566,11 @@
         <v>102825.0370294814</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>736</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1587,9 +1605,11 @@
         <v>90476.61892948138</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>747</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1661,9 +1681,11 @@
         <v>84983.29752948138</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>738</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2031,7 +2053,7 @@
         <v>73604.34282948138</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2068,7 +2090,7 @@
         <v>73603.22362948138</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2105,7 +2127,7 @@
         <v>74091.44292948137</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2216,7 +2238,7 @@
         <v>84810.31402948136</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2253,7 +2275,7 @@
         <v>84811.31402948136</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2290,7 +2312,7 @@
         <v>85350.36122948136</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2327,7 +2349,7 @@
         <v>82016.76512948137</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2401,7 +2423,7 @@
         <v>101498.2440294814</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4103,16 +4125,18 @@
         <v>160599.0394245191</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4138,11 +4162,15 @@
         <v>159022.7011245191</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +4199,15 @@
         <v>161218.2159245191</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +4236,15 @@
         <v>148801.9602908508</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4237,11 +4273,15 @@
         <v>148801.9602908508</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4270,11 +4310,15 @@
         <v>149962.0642936426</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4303,11 +4347,15 @@
         <v>138190.0007718152</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4340,7 +4388,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4369,11 +4421,15 @@
         <v>133870.3996128409</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4462,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4439,7 +4499,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4536,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4505,7 +4573,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4610,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4571,7 +4647,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4604,7 +4684,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4637,7 +4721,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4670,7 +4758,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4703,7 +4795,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4736,7 +4832,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4769,7 +4869,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4802,7 +4906,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +4943,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4980,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +5017,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +5054,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +5091,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +5128,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5165,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5066,7 +5202,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5099,7 +5239,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +5276,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5313,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +5346,15 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5231,7 +5387,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5424,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5297,7 +5461,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5330,7 +5498,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5359,14 +5531,16 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5392,7 +5566,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5425,7 +5599,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5458,7 +5632,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5491,7 +5665,7 @@
         <v>148235.6911015449</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5524,7 +5698,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5557,7 +5731,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5590,7 +5764,7 @@
         <v>155063.3448609706</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5623,7 +5797,7 @@
         <v>151712.0785609706</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5656,7 +5830,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5689,7 +5863,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5722,7 +5896,7 @@
         <v>146959.1084609706</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5755,7 +5929,7 @@
         <v>145901.9490609706</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5788,7 +5962,7 @@
         <v>142064.0407609706</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5821,7 +5995,7 @@
         <v>138410.4109609706</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5854,7 +6028,7 @@
         <v>143352.5750609706</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5887,7 +6061,7 @@
         <v>143117.6287609706</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5920,7 +6094,7 @@
         <v>141398.8906609706</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5953,7 +6127,7 @@
         <v>141650.6979609706</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5986,7 +6160,7 @@
         <v>133810.9730609706</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6019,7 +6193,7 @@
         <v>136187.6726609706</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6052,7 +6226,7 @@
         <v>136513.5425609706</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6250,7 +6424,7 @@
         <v>130113.4897609706</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6283,7 +6457,7 @@
         <v>130040.5245609706</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6316,7 +6490,7 @@
         <v>129764.6812609706</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6349,7 +6523,7 @@
         <v>129764.6812609706</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6382,7 +6556,7 @@
         <v>124807.0679609706</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6415,7 +6589,7 @@
         <v>124842.1162609706</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6448,7 +6622,7 @@
         <v>123496.6225609706</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6481,7 +6655,7 @@
         <v>123512.4225609706</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6514,7 +6688,7 @@
         <v>123654.6072609706</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6547,7 +6721,7 @@
         <v>116765.3316609706</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6580,7 +6754,7 @@
         <v>99070.01716097057</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6613,7 +6787,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6646,7 +6820,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6679,7 +6853,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6712,7 +6886,7 @@
         <v>97970.77566097057</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6745,7 +6919,7 @@
         <v>97970.77566097057</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6778,7 +6952,7 @@
         <v>97813.98256097057</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6811,7 +6985,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6844,7 +7018,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6877,7 +7051,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6910,7 +7084,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6943,7 +7117,7 @@
         <v>95071.48916097058</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6976,7 +7150,7 @@
         <v>97590.91406097058</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7009,7 +7183,7 @@
         <v>97585.49406097058</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7042,7 +7216,7 @@
         <v>96776.30266097058</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7075,7 +7249,7 @@
         <v>96866.67976097058</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7108,7 +7282,7 @@
         <v>96866.67976097058</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7141,7 +7315,7 @@
         <v>97510.81741385889</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7174,7 +7348,7 @@
         <v>96905.9296138589</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7207,7 +7381,7 @@
         <v>96426.5016138589</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7240,7 +7414,7 @@
         <v>96008.23801385889</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7306,7 +7480,7 @@
         <v>94670.55141385889</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -13081,7 +13255,7 @@
         <v>65349.35086317537</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14929,7 +15103,7 @@
         <v>71207.3300159458</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14962,7 +15136,7 @@
         <v>70661.3845159458</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14995,7 +15169,7 @@
         <v>70092.45135830967</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15061,7 +15235,7 @@
         <v>67709.11945830967</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -19879,11 +20053,17 @@
         <v>37479.19385830963</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>715</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19912,11 +20092,17 @@
         <v>37659.87545830963</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>715</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19945,11 +20131,17 @@
         <v>35283.64305830963</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>724</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19978,11 +20170,17 @@
         <v>31742.70365830963</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>713</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +20209,17 @@
         <v>32112.57805830963</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>708</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20048,7 +20252,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20081,7 +20289,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20114,7 +20326,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20147,7 +20363,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20180,7 +20400,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20213,7 +20437,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20246,7 +20474,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20279,7 +20511,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20312,7 +20548,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20345,7 +20585,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20378,7 +20622,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20411,7 +20659,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20440,11 +20692,17 @@
         <v>26761.28235830963</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>711</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20473,11 +20731,17 @@
         <v>25204.59995830962</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>709</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20506,11 +20770,17 @@
         <v>25363.80475830962</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>707</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20539,11 +20809,17 @@
         <v>25363.80475830962</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>710</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20572,11 +20848,17 @@
         <v>25335.55195830962</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>710</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20605,11 +20887,17 @@
         <v>25335.55195830962</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>708</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20638,11 +20926,17 @@
         <v>24397.87395830962</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>708</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20671,11 +20965,17 @@
         <v>24397.87395830962</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>707</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20704,11 +21004,17 @@
         <v>24399.87395830962</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>707</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20737,11 +21043,17 @@
         <v>24397.87395830962</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>711</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20770,11 +21082,17 @@
         <v>24402.87395830962</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>710</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20803,11 +21121,17 @@
         <v>24400.87395830962</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>714</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20836,11 +21160,17 @@
         <v>24400.87395830962</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>710</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20869,11 +21199,17 @@
         <v>24395.87395830962</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>710</v>
+      </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20902,11 +21238,17 @@
         <v>24604.45095830963</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>709</v>
+      </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20935,11 +21277,17 @@
         <v>24604.45095830963</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>713</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20968,11 +21316,17 @@
         <v>24596.45095830963</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>713</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21001,11 +21355,17 @@
         <v>24599.45095830963</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>710</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21034,11 +21394,17 @@
         <v>24657.58245830963</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>711</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21067,11 +21433,17 @@
         <v>24658.58245830963</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>713</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21100,11 +21472,17 @@
         <v>23934.58315830963</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>715</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21133,11 +21511,17 @@
         <v>23935.58315830963</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>710</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21166,11 +21550,17 @@
         <v>23563.08165830963</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>714</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21199,11 +21589,17 @@
         <v>31884.79925830963</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>710</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21232,11 +21628,17 @@
         <v>31885.79925830963</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>711</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21265,11 +21667,17 @@
         <v>28254.24965830963</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>712</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21298,11 +21706,17 @@
         <v>25391.36245830963</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>702</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21331,11 +21745,17 @@
         <v>24864.43825830963</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>696</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21364,11 +21784,17 @@
         <v>31205.22966374597</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>693</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21397,11 +21823,17 @@
         <v>30806.73666374597</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>699</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21430,11 +21862,17 @@
         <v>29350.70926374597</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>694</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21463,17 +21901,23 @@
         <v>26708.44906374597</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>692</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
       <c r="M626" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-07 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-07 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -523,11 +523,9 @@
         <v>29385.5720016814</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -562,11 +560,9 @@
         <v>47066.4996016814</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +597,9 @@
         <v>48416.1563016814</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +634,9 @@
         <v>42155.7043016814</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +671,9 @@
         <v>33875.6608016814</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +708,9 @@
         <v>34085.0378016814</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +745,9 @@
         <v>36057.4272878883</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +782,9 @@
         <v>40180.1491878883</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +819,9 @@
         <v>47617.0624878883</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +856,9 @@
         <v>51208.3013016814</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +893,9 @@
         <v>50087.3013016814</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +930,9 @@
         <v>45210.2576016814</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +967,9 @@
         <v>45849.8806016814</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1004,9 @@
         <v>45849.8806016814</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1041,9 @@
         <v>52943.20360168139</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1078,9 @@
         <v>43469.2436016814</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1115,9 @@
         <v>47114.50610168139</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1152,9 @@
         <v>104218.3289491011</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1373,11 +1337,9 @@
         <v>150797.8041294814</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1449,11 +1411,9 @@
         <v>109011.3929294814</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1488,11 +1448,9 @@
         <v>109067.9346294814</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1527,11 +1485,9 @@
         <v>101346.1518294814</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1566,11 +1522,9 @@
         <v>102825.0370294814</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1605,11 +1559,9 @@
         <v>90476.61892948138</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1681,11 +1633,9 @@
         <v>84983.29752948138</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2127,18 +2077,16 @@
         <v>74091.44292948137</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2164,15 +2112,11 @@
         <v>72619.17532948137</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2201,15 +2145,11 @@
         <v>75951.53072948137</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2238,15 +2178,11 @@
         <v>84810.31402948136</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2275,15 +2211,11 @@
         <v>84811.31402948136</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2312,15 +2244,11 @@
         <v>85350.36122948136</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2349,15 +2277,11 @@
         <v>82016.76512948137</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2386,15 +2310,11 @@
         <v>86923.10062948137</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2423,15 +2343,11 @@
         <v>101498.2440294814</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2380,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2501,11 +2413,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2538,11 +2446,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2479,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2512,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2545,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2686,11 +2578,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2723,11 +2611,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2644,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2677,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2710,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2743,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2776,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2809,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2842,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2875,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2908,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +2941,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +2974,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +3007,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +3040,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3073,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3106,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3315,11 +3139,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3352,11 +3172,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3389,11 +3205,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3238,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3463,11 +3271,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3500,11 +3304,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3537,11 +3337,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3574,11 +3370,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3611,11 +3403,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3436,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3469,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3502,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3759,11 +3535,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3568,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +3601,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +3634,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3907,11 +3667,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3700,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +3733,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +3766,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +3799,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +3832,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4129,11 +3865,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4166,11 +3898,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4203,11 +3931,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4240,11 +3964,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +3997,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4314,11 +4030,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +4063,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +4096,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +4129,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4162,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4195,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4228,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4261,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4610,11 +4294,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4327,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4360,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4721,11 +4393,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +4426,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4459,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4492,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4525,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4558,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4591,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4980,11 +4624,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +4657,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +4690,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +4723,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4756,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +4789,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +4822,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +4855,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +4888,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5313,11 +4921,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +4954,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +4987,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5020,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +5053,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5086,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5531,16 +5115,14 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5566,7 +5148,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5599,7 +5181,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5632,7 +5214,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5665,7 +5247,7 @@
         <v>148235.6911015449</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5698,7 +5280,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5731,7 +5313,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5764,7 +5346,7 @@
         <v>155063.3448609706</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5797,7 +5379,7 @@
         <v>151712.0785609706</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5830,7 +5412,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5863,7 +5445,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5896,7 +5478,7 @@
         <v>146959.1084609706</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5929,7 +5511,7 @@
         <v>145901.9490609706</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5962,7 +5544,7 @@
         <v>142064.0407609706</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5995,7 +5577,7 @@
         <v>138410.4109609706</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6028,7 +5610,7 @@
         <v>143352.5750609706</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6061,7 +5643,7 @@
         <v>143117.6287609706</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6094,7 +5676,7 @@
         <v>141398.8906609706</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6127,7 +5709,7 @@
         <v>141650.6979609706</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6160,7 +5742,7 @@
         <v>133810.9730609706</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6193,7 +5775,7 @@
         <v>136187.6726609706</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6226,7 +5808,7 @@
         <v>136513.5425609706</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6424,7 +6006,7 @@
         <v>130113.4897609706</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6457,7 +6039,7 @@
         <v>130040.5245609706</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6490,7 +6072,7 @@
         <v>129764.6812609706</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6523,7 +6105,7 @@
         <v>129764.6812609706</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +6138,7 @@
         <v>124807.0679609706</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6589,7 +6171,7 @@
         <v>124842.1162609706</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6622,7 +6204,7 @@
         <v>123496.6225609706</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6655,7 +6237,7 @@
         <v>123512.4225609706</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6688,7 +6270,7 @@
         <v>123654.6072609706</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6721,7 +6303,7 @@
         <v>116765.3316609706</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6754,7 +6336,7 @@
         <v>99070.01716097057</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6787,7 +6369,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6820,7 +6402,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6853,7 +6435,7 @@
         <v>98617.24076097057</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6886,7 +6468,7 @@
         <v>97970.77566097057</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6919,7 +6501,7 @@
         <v>97970.77566097057</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6952,7 +6534,7 @@
         <v>97813.98256097057</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6985,7 +6567,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7018,7 +6600,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7051,7 +6633,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7084,7 +6666,7 @@
         <v>93723.82366097058</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7117,7 +6699,7 @@
         <v>95071.48916097058</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7150,7 +6732,7 @@
         <v>97590.91406097058</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7183,7 +6765,7 @@
         <v>97585.49406097058</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7216,7 +6798,7 @@
         <v>96776.30266097058</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7249,7 +6831,7 @@
         <v>96866.67976097058</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7282,7 +6864,7 @@
         <v>96866.67976097058</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7315,7 +6897,7 @@
         <v>97510.81741385889</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7348,7 +6930,7 @@
         <v>96905.9296138589</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7381,7 +6963,7 @@
         <v>96426.5016138589</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7414,7 +6996,7 @@
         <v>96008.23801385889</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7480,7 +7062,7 @@
         <v>94670.55141385889</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -20053,1202 +19635,1052 @@
         <v>37479.19385830963</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
         <v>715</v>
       </c>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
+      <c r="C579" t="n">
+        <v>724</v>
+      </c>
+      <c r="D579" t="n">
+        <v>724</v>
+      </c>
+      <c r="E579" t="n">
+        <v>712</v>
+      </c>
+      <c r="F579" t="n">
+        <v>180.6816</v>
+      </c>
+      <c r="G579" t="n">
+        <v>37659.87545830963</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>713</v>
+      </c>
+      <c r="C580" t="n">
+        <v>713</v>
+      </c>
+      <c r="D580" t="n">
+        <v>713</v>
+      </c>
+      <c r="E580" t="n">
+        <v>713</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2376.2324</v>
+      </c>
+      <c r="G580" t="n">
+        <v>35283.64305830963</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>713</v>
+      </c>
+      <c r="C581" t="n">
+        <v>708</v>
+      </c>
+      <c r="D581" t="n">
+        <v>726</v>
+      </c>
+      <c r="E581" t="n">
+        <v>708</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3540.9394</v>
+      </c>
+      <c r="G581" t="n">
+        <v>31742.70365830963</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>709</v>
+      </c>
+      <c r="C582" t="n">
+        <v>728</v>
+      </c>
+      <c r="D582" t="n">
+        <v>728</v>
+      </c>
+      <c r="E582" t="n">
+        <v>709</v>
+      </c>
+      <c r="F582" t="n">
+        <v>369.8744</v>
+      </c>
+      <c r="G582" t="n">
+        <v>32112.57805830963</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>712</v>
+      </c>
+      <c r="C583" t="n">
+        <v>730</v>
+      </c>
+      <c r="D583" t="n">
+        <v>730</v>
+      </c>
+      <c r="E583" t="n">
+        <v>712</v>
+      </c>
+      <c r="F583" t="n">
+        <v>266.2237</v>
+      </c>
+      <c r="G583" t="n">
+        <v>32378.80175830963</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>731</v>
+      </c>
+      <c r="C584" t="n">
+        <v>730</v>
+      </c>
+      <c r="D584" t="n">
+        <v>731</v>
+      </c>
+      <c r="E584" t="n">
+        <v>730</v>
+      </c>
+      <c r="F584" t="n">
+        <v>226.7123</v>
+      </c>
+      <c r="G584" t="n">
+        <v>32378.80175830963</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>726</v>
+      </c>
+      <c r="C585" t="n">
+        <v>726</v>
+      </c>
+      <c r="D585" t="n">
+        <v>726</v>
+      </c>
+      <c r="E585" t="n">
+        <v>726</v>
+      </c>
+      <c r="F585" t="n">
+        <v>4.4814</v>
+      </c>
+      <c r="G585" t="n">
+        <v>32374.32035830963</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>718</v>
+      </c>
+      <c r="C586" t="n">
+        <v>727</v>
+      </c>
+      <c r="D586" t="n">
+        <v>727</v>
+      </c>
+      <c r="E586" t="n">
+        <v>718</v>
+      </c>
+      <c r="F586" t="n">
+        <v>283.0493</v>
+      </c>
+      <c r="G586" t="n">
+        <v>32657.36965830963</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>724</v>
+      </c>
+      <c r="C587" t="n">
+        <v>727</v>
+      </c>
+      <c r="D587" t="n">
+        <v>727</v>
+      </c>
+      <c r="E587" t="n">
+        <v>724</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1.5955</v>
+      </c>
+      <c r="G587" t="n">
+        <v>32657.36965830963</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>723</v>
+      </c>
+      <c r="C588" t="n">
+        <v>723</v>
+      </c>
+      <c r="D588" t="n">
+        <v>723</v>
+      </c>
+      <c r="E588" t="n">
+        <v>716</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1279.0642</v>
+      </c>
+      <c r="G588" t="n">
+        <v>31378.30545830963</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>717</v>
+      </c>
+      <c r="C589" t="n">
+        <v>713</v>
+      </c>
+      <c r="D589" t="n">
+        <v>717</v>
+      </c>
+      <c r="E589" t="n">
+        <v>713</v>
+      </c>
+      <c r="F589" t="n">
+        <v>4190.8468</v>
+      </c>
+      <c r="G589" t="n">
+        <v>27187.45865830963</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>712</v>
+      </c>
+      <c r="C590" t="n">
+        <v>726</v>
+      </c>
+      <c r="D590" t="n">
+        <v>726</v>
+      </c>
+      <c r="E590" t="n">
+        <v>711</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3922.7517</v>
+      </c>
+      <c r="G590" t="n">
+        <v>31110.21035830963</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>724</v>
+      </c>
+      <c r="C591" t="n">
+        <v>722</v>
+      </c>
+      <c r="D591" t="n">
+        <v>724</v>
+      </c>
+      <c r="E591" t="n">
+        <v>722</v>
+      </c>
+      <c r="F591" t="n">
+        <v>10</v>
+      </c>
+      <c r="G591" t="n">
+        <v>31100.21035830963</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>721</v>
+      </c>
+      <c r="C592" t="n">
+        <v>721</v>
+      </c>
+      <c r="D592" t="n">
+        <v>721</v>
+      </c>
+      <c r="E592" t="n">
+        <v>720</v>
+      </c>
+      <c r="F592" t="n">
+        <v>10.8901</v>
+      </c>
+      <c r="G592" t="n">
+        <v>31089.32025830963</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>720</v>
+      </c>
+      <c r="C593" t="n">
+        <v>720</v>
+      </c>
+      <c r="D593" t="n">
+        <v>726</v>
+      </c>
+      <c r="E593" t="n">
+        <v>718</v>
+      </c>
+      <c r="F593" t="n">
+        <v>67</v>
+      </c>
+      <c r="G593" t="n">
+        <v>31022.32025830963</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>719</v>
+      </c>
+      <c r="C594" t="n">
+        <v>711</v>
+      </c>
+      <c r="D594" t="n">
+        <v>719</v>
+      </c>
+      <c r="E594" t="n">
+        <v>710</v>
+      </c>
+      <c r="F594" t="n">
+        <v>2896.2953</v>
+      </c>
+      <c r="G594" t="n">
+        <v>28126.02495830963</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>710</v>
+      </c>
+      <c r="C595" t="n">
+        <v>709</v>
+      </c>
+      <c r="D595" t="n">
+        <v>710</v>
+      </c>
+      <c r="E595" t="n">
+        <v>709</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1364.7426</v>
+      </c>
+      <c r="G595" t="n">
+        <v>26761.28235830963</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>715</v>
+      </c>
+      <c r="C596" t="n">
+        <v>707</v>
+      </c>
+      <c r="D596" t="n">
+        <v>715</v>
+      </c>
+      <c r="E596" t="n">
+        <v>707</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1556.6824</v>
+      </c>
+      <c r="G596" t="n">
+        <v>25204.59995830962</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>710</v>
+      </c>
+      <c r="C597" t="n">
+        <v>710</v>
+      </c>
+      <c r="D597" t="n">
+        <v>710</v>
+      </c>
+      <c r="E597" t="n">
+        <v>710</v>
+      </c>
+      <c r="F597" t="n">
+        <v>159.2048</v>
+      </c>
+      <c r="G597" t="n">
+        <v>25363.80475830962</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>711</v>
+      </c>
+      <c r="C598" t="n">
+        <v>710</v>
+      </c>
+      <c r="D598" t="n">
+        <v>711</v>
+      </c>
+      <c r="E598" t="n">
+        <v>710</v>
+      </c>
+      <c r="F598" t="n">
+        <v>345.5923</v>
+      </c>
+      <c r="G598" t="n">
+        <v>25363.80475830962</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>708</v>
+      </c>
+      <c r="C599" t="n">
+        <v>708</v>
+      </c>
+      <c r="D599" t="n">
+        <v>708</v>
+      </c>
+      <c r="E599" t="n">
+        <v>708</v>
+      </c>
+      <c r="F599" t="n">
+        <v>28.2528</v>
+      </c>
+      <c r="G599" t="n">
+        <v>25335.55195830962</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>707</v>
+      </c>
+      <c r="C600" t="n">
+        <v>708</v>
+      </c>
+      <c r="D600" t="n">
+        <v>708</v>
+      </c>
+      <c r="E600" t="n">
+        <v>707</v>
+      </c>
+      <c r="F600" t="n">
+        <v>2077.7978</v>
+      </c>
+      <c r="G600" t="n">
+        <v>25335.55195830962</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>707</v>
+      </c>
+      <c r="C601" t="n">
+        <v>707</v>
+      </c>
+      <c r="D601" t="n">
+        <v>707</v>
+      </c>
+      <c r="E601" t="n">
+        <v>707</v>
+      </c>
+      <c r="F601" t="n">
+        <v>937.678</v>
+      </c>
+      <c r="G601" t="n">
+        <v>24397.87395830962</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>707</v>
+      </c>
+      <c r="C602" t="n">
+        <v>707</v>
+      </c>
+      <c r="D602" t="n">
+        <v>707</v>
+      </c>
+      <c r="E602" t="n">
+        <v>707</v>
+      </c>
+      <c r="F602" t="n">
+        <v>351.4383</v>
+      </c>
+      <c r="G602" t="n">
+        <v>24397.87395830962</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>711</v>
+      </c>
+      <c r="C603" t="n">
+        <v>711</v>
+      </c>
+      <c r="D603" t="n">
+        <v>711</v>
+      </c>
+      <c r="E603" t="n">
+        <v>711</v>
+      </c>
+      <c r="F603" t="n">
+        <v>2</v>
+      </c>
+      <c r="G603" t="n">
+        <v>24399.87395830962</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>710</v>
+      </c>
+      <c r="C604" t="n">
+        <v>710</v>
+      </c>
+      <c r="D604" t="n">
+        <v>710</v>
+      </c>
+      <c r="E604" t="n">
+        <v>710</v>
+      </c>
+      <c r="F604" t="n">
+        <v>2</v>
+      </c>
+      <c r="G604" t="n">
+        <v>24397.87395830962</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>714</v>
+      </c>
+      <c r="C605" t="n">
+        <v>714</v>
+      </c>
+      <c r="D605" t="n">
+        <v>714</v>
+      </c>
+      <c r="E605" t="n">
+        <v>714</v>
+      </c>
+      <c r="F605" t="n">
+        <v>5</v>
+      </c>
+      <c r="G605" t="n">
+        <v>24402.87395830962</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>710</v>
+      </c>
+      <c r="C606" t="n">
+        <v>710</v>
+      </c>
+      <c r="D606" t="n">
+        <v>710</v>
+      </c>
+      <c r="E606" t="n">
+        <v>710</v>
+      </c>
+      <c r="F606" t="n">
+        <v>2</v>
+      </c>
+      <c r="G606" t="n">
+        <v>24400.87395830962</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>710</v>
+      </c>
+      <c r="C607" t="n">
+        <v>710</v>
+      </c>
+      <c r="D607" t="n">
+        <v>710</v>
+      </c>
+      <c r="E607" t="n">
+        <v>710</v>
+      </c>
+      <c r="F607" t="n">
+        <v>66.1088</v>
+      </c>
+      <c r="G607" t="n">
+        <v>24400.87395830962</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>710</v>
+      </c>
+      <c r="J607" t="n">
+        <v>710</v>
+      </c>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>709</v>
+      </c>
+      <c r="C608" t="n">
+        <v>709</v>
+      </c>
+      <c r="D608" t="n">
+        <v>709</v>
+      </c>
+      <c r="E608" t="n">
+        <v>709</v>
+      </c>
+      <c r="F608" t="n">
+        <v>5</v>
+      </c>
+      <c r="G608" t="n">
+        <v>24395.87395830962</v>
+      </c>
+      <c r="H608" t="n">
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>710</v>
+      </c>
+      <c r="J608" t="n">
+        <v>710</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>710</v>
+      </c>
+      <c r="C609" t="n">
+        <v>713</v>
+      </c>
+      <c r="D609" t="n">
+        <v>713</v>
+      </c>
+      <c r="E609" t="n">
+        <v>710</v>
+      </c>
+      <c r="F609" t="n">
+        <v>208.577</v>
+      </c>
+      <c r="G609" t="n">
+        <v>24604.45095830963</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>710</v>
+      </c>
+      <c r="K609" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>715</v>
-      </c>
-      <c r="C579" t="n">
-        <v>724</v>
-      </c>
-      <c r="D579" t="n">
-        <v>724</v>
-      </c>
-      <c r="E579" t="n">
-        <v>712</v>
-      </c>
-      <c r="F579" t="n">
-        <v>180.6816</v>
-      </c>
-      <c r="G579" t="n">
-        <v>37659.87545830963</v>
-      </c>
-      <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>715</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>713</v>
-      </c>
-      <c r="C580" t="n">
-        <v>713</v>
-      </c>
-      <c r="D580" t="n">
-        <v>713</v>
-      </c>
-      <c r="E580" t="n">
-        <v>713</v>
-      </c>
-      <c r="F580" t="n">
-        <v>2376.2324</v>
-      </c>
-      <c r="G580" t="n">
-        <v>35283.64305830963</v>
-      </c>
-      <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>724</v>
-      </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>713</v>
-      </c>
-      <c r="C581" t="n">
-        <v>708</v>
-      </c>
-      <c r="D581" t="n">
-        <v>726</v>
-      </c>
-      <c r="E581" t="n">
-        <v>708</v>
-      </c>
-      <c r="F581" t="n">
-        <v>3540.9394</v>
-      </c>
-      <c r="G581" t="n">
-        <v>31742.70365830963</v>
-      </c>
-      <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>713</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>709</v>
-      </c>
-      <c r="C582" t="n">
-        <v>728</v>
-      </c>
-      <c r="D582" t="n">
-        <v>728</v>
-      </c>
-      <c r="E582" t="n">
-        <v>709</v>
-      </c>
-      <c r="F582" t="n">
-        <v>369.8744</v>
-      </c>
-      <c r="G582" t="n">
-        <v>32112.57805830963</v>
-      </c>
-      <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>708</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>712</v>
-      </c>
-      <c r="C583" t="n">
-        <v>730</v>
-      </c>
-      <c r="D583" t="n">
-        <v>730</v>
-      </c>
-      <c r="E583" t="n">
-        <v>712</v>
-      </c>
-      <c r="F583" t="n">
-        <v>266.2237</v>
-      </c>
-      <c r="G583" t="n">
-        <v>32378.80175830963</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>731</v>
-      </c>
-      <c r="C584" t="n">
-        <v>730</v>
-      </c>
-      <c r="D584" t="n">
-        <v>731</v>
-      </c>
-      <c r="E584" t="n">
-        <v>730</v>
-      </c>
-      <c r="F584" t="n">
-        <v>226.7123</v>
-      </c>
-      <c r="G584" t="n">
-        <v>32378.80175830963</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>726</v>
-      </c>
-      <c r="C585" t="n">
-        <v>726</v>
-      </c>
-      <c r="D585" t="n">
-        <v>726</v>
-      </c>
-      <c r="E585" t="n">
-        <v>726</v>
-      </c>
-      <c r="F585" t="n">
-        <v>4.4814</v>
-      </c>
-      <c r="G585" t="n">
-        <v>32374.32035830963</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>718</v>
-      </c>
-      <c r="C586" t="n">
-        <v>727</v>
-      </c>
-      <c r="D586" t="n">
-        <v>727</v>
-      </c>
-      <c r="E586" t="n">
-        <v>718</v>
-      </c>
-      <c r="F586" t="n">
-        <v>283.0493</v>
-      </c>
-      <c r="G586" t="n">
-        <v>32657.36965830963</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>724</v>
-      </c>
-      <c r="C587" t="n">
-        <v>727</v>
-      </c>
-      <c r="D587" t="n">
-        <v>727</v>
-      </c>
-      <c r="E587" t="n">
-        <v>724</v>
-      </c>
-      <c r="F587" t="n">
-        <v>1.5955</v>
-      </c>
-      <c r="G587" t="n">
-        <v>32657.36965830963</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>723</v>
-      </c>
-      <c r="C588" t="n">
-        <v>723</v>
-      </c>
-      <c r="D588" t="n">
-        <v>723</v>
-      </c>
-      <c r="E588" t="n">
-        <v>716</v>
-      </c>
-      <c r="F588" t="n">
-        <v>1279.0642</v>
-      </c>
-      <c r="G588" t="n">
-        <v>31378.30545830963</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>717</v>
-      </c>
-      <c r="C589" t="n">
-        <v>713</v>
-      </c>
-      <c r="D589" t="n">
-        <v>717</v>
-      </c>
-      <c r="E589" t="n">
-        <v>713</v>
-      </c>
-      <c r="F589" t="n">
-        <v>4190.8468</v>
-      </c>
-      <c r="G589" t="n">
-        <v>27187.45865830963</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>712</v>
-      </c>
-      <c r="C590" t="n">
-        <v>726</v>
-      </c>
-      <c r="D590" t="n">
-        <v>726</v>
-      </c>
-      <c r="E590" t="n">
-        <v>711</v>
-      </c>
-      <c r="F590" t="n">
-        <v>3922.7517</v>
-      </c>
-      <c r="G590" t="n">
-        <v>31110.21035830963</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>724</v>
-      </c>
-      <c r="C591" t="n">
-        <v>722</v>
-      </c>
-      <c r="D591" t="n">
-        <v>724</v>
-      </c>
-      <c r="E591" t="n">
-        <v>722</v>
-      </c>
-      <c r="F591" t="n">
-        <v>10</v>
-      </c>
-      <c r="G591" t="n">
-        <v>31100.21035830963</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>721</v>
-      </c>
-      <c r="C592" t="n">
-        <v>721</v>
-      </c>
-      <c r="D592" t="n">
-        <v>721</v>
-      </c>
-      <c r="E592" t="n">
-        <v>720</v>
-      </c>
-      <c r="F592" t="n">
-        <v>10.8901</v>
-      </c>
-      <c r="G592" t="n">
-        <v>31089.32025830963</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>720</v>
-      </c>
-      <c r="C593" t="n">
-        <v>720</v>
-      </c>
-      <c r="D593" t="n">
-        <v>726</v>
-      </c>
-      <c r="E593" t="n">
-        <v>718</v>
-      </c>
-      <c r="F593" t="n">
-        <v>67</v>
-      </c>
-      <c r="G593" t="n">
-        <v>31022.32025830963</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>719</v>
-      </c>
-      <c r="C594" t="n">
-        <v>711</v>
-      </c>
-      <c r="D594" t="n">
-        <v>719</v>
-      </c>
-      <c r="E594" t="n">
-        <v>710</v>
-      </c>
-      <c r="F594" t="n">
-        <v>2896.2953</v>
-      </c>
-      <c r="G594" t="n">
-        <v>28126.02495830963</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>710</v>
-      </c>
-      <c r="C595" t="n">
-        <v>709</v>
-      </c>
-      <c r="D595" t="n">
-        <v>710</v>
-      </c>
-      <c r="E595" t="n">
-        <v>709</v>
-      </c>
-      <c r="F595" t="n">
-        <v>1364.7426</v>
-      </c>
-      <c r="G595" t="n">
-        <v>26761.28235830963</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>711</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>715</v>
-      </c>
-      <c r="C596" t="n">
-        <v>707</v>
-      </c>
-      <c r="D596" t="n">
-        <v>715</v>
-      </c>
-      <c r="E596" t="n">
-        <v>707</v>
-      </c>
-      <c r="F596" t="n">
-        <v>1556.6824</v>
-      </c>
-      <c r="G596" t="n">
-        <v>25204.59995830962</v>
-      </c>
-      <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>709</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>710</v>
-      </c>
-      <c r="C597" t="n">
-        <v>710</v>
-      </c>
-      <c r="D597" t="n">
-        <v>710</v>
-      </c>
-      <c r="E597" t="n">
-        <v>710</v>
-      </c>
-      <c r="F597" t="n">
-        <v>159.2048</v>
-      </c>
-      <c r="G597" t="n">
-        <v>25363.80475830962</v>
-      </c>
-      <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>707</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>711</v>
-      </c>
-      <c r="C598" t="n">
-        <v>710</v>
-      </c>
-      <c r="D598" t="n">
-        <v>711</v>
-      </c>
-      <c r="E598" t="n">
-        <v>710</v>
-      </c>
-      <c r="F598" t="n">
-        <v>345.5923</v>
-      </c>
-      <c r="G598" t="n">
-        <v>25363.80475830962</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>710</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>708</v>
-      </c>
-      <c r="C599" t="n">
-        <v>708</v>
-      </c>
-      <c r="D599" t="n">
-        <v>708</v>
-      </c>
-      <c r="E599" t="n">
-        <v>708</v>
-      </c>
-      <c r="F599" t="n">
-        <v>28.2528</v>
-      </c>
-      <c r="G599" t="n">
-        <v>25335.55195830962</v>
-      </c>
-      <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>710</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>707</v>
-      </c>
-      <c r="C600" t="n">
-        <v>708</v>
-      </c>
-      <c r="D600" t="n">
-        <v>708</v>
-      </c>
-      <c r="E600" t="n">
-        <v>707</v>
-      </c>
-      <c r="F600" t="n">
-        <v>2077.7978</v>
-      </c>
-      <c r="G600" t="n">
-        <v>25335.55195830962</v>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>708</v>
-      </c>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>707</v>
-      </c>
-      <c r="C601" t="n">
-        <v>707</v>
-      </c>
-      <c r="D601" t="n">
-        <v>707</v>
-      </c>
-      <c r="E601" t="n">
-        <v>707</v>
-      </c>
-      <c r="F601" t="n">
-        <v>937.678</v>
-      </c>
-      <c r="G601" t="n">
-        <v>24397.87395830962</v>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>708</v>
-      </c>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>707</v>
-      </c>
-      <c r="C602" t="n">
-        <v>707</v>
-      </c>
-      <c r="D602" t="n">
-        <v>707</v>
-      </c>
-      <c r="E602" t="n">
-        <v>707</v>
-      </c>
-      <c r="F602" t="n">
-        <v>351.4383</v>
-      </c>
-      <c r="G602" t="n">
-        <v>24397.87395830962</v>
-      </c>
-      <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>707</v>
-      </c>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>711</v>
-      </c>
-      <c r="C603" t="n">
-        <v>711</v>
-      </c>
-      <c r="D603" t="n">
-        <v>711</v>
-      </c>
-      <c r="E603" t="n">
-        <v>711</v>
-      </c>
-      <c r="F603" t="n">
-        <v>2</v>
-      </c>
-      <c r="G603" t="n">
-        <v>24399.87395830962</v>
-      </c>
-      <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>707</v>
-      </c>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>710</v>
-      </c>
-      <c r="C604" t="n">
-        <v>710</v>
-      </c>
-      <c r="D604" t="n">
-        <v>710</v>
-      </c>
-      <c r="E604" t="n">
-        <v>710</v>
-      </c>
-      <c r="F604" t="n">
-        <v>2</v>
-      </c>
-      <c r="G604" t="n">
-        <v>24397.87395830962</v>
-      </c>
-      <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>711</v>
-      </c>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>714</v>
-      </c>
-      <c r="C605" t="n">
-        <v>714</v>
-      </c>
-      <c r="D605" t="n">
-        <v>714</v>
-      </c>
-      <c r="E605" t="n">
-        <v>714</v>
-      </c>
-      <c r="F605" t="n">
-        <v>5</v>
-      </c>
-      <c r="G605" t="n">
-        <v>24402.87395830962</v>
-      </c>
-      <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>710</v>
-      </c>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>710</v>
-      </c>
-      <c r="C606" t="n">
-        <v>710</v>
-      </c>
-      <c r="D606" t="n">
-        <v>710</v>
-      </c>
-      <c r="E606" t="n">
-        <v>710</v>
-      </c>
-      <c r="F606" t="n">
-        <v>2</v>
-      </c>
-      <c r="G606" t="n">
-        <v>24400.87395830962</v>
-      </c>
-      <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>714</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>710</v>
-      </c>
-      <c r="C607" t="n">
-        <v>710</v>
-      </c>
-      <c r="D607" t="n">
-        <v>710</v>
-      </c>
-      <c r="E607" t="n">
-        <v>710</v>
-      </c>
-      <c r="F607" t="n">
-        <v>66.1088</v>
-      </c>
-      <c r="G607" t="n">
-        <v>24400.87395830962</v>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>710</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>709</v>
-      </c>
-      <c r="C608" t="n">
-        <v>709</v>
-      </c>
-      <c r="D608" t="n">
-        <v>709</v>
-      </c>
-      <c r="E608" t="n">
-        <v>709</v>
-      </c>
-      <c r="F608" t="n">
-        <v>5</v>
-      </c>
-      <c r="G608" t="n">
-        <v>24395.87395830962</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>710</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>710</v>
-      </c>
-      <c r="C609" t="n">
-        <v>713</v>
-      </c>
-      <c r="D609" t="n">
-        <v>713</v>
-      </c>
-      <c r="E609" t="n">
-        <v>710</v>
-      </c>
-      <c r="F609" t="n">
-        <v>208.577</v>
-      </c>
-      <c r="G609" t="n">
-        <v>24604.45095830963</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>709</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21282,7 +20714,9 @@
       <c r="I610" t="n">
         <v>713</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>710</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,7 +20755,9 @@
       <c r="I611" t="n">
         <v>713</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>710</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21360,7 +20796,9 @@
       <c r="I612" t="n">
         <v>710</v>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>710</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21394,12 +20832,12 @@
         <v>24657.58245830963</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>711</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>710</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21438,7 +20876,9 @@
       <c r="I614" t="n">
         <v>713</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>710</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21477,7 +20917,9 @@
       <c r="I615" t="n">
         <v>715</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>710</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21516,7 +20958,9 @@
       <c r="I616" t="n">
         <v>710</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>710</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,12 +20994,12 @@
         <v>23563.08165830963</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>714</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>710</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21594,7 +21038,9 @@
       <c r="I618" t="n">
         <v>710</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>710</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21633,7 +21079,9 @@
       <c r="I619" t="n">
         <v>711</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>710</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,7 +21120,9 @@
       <c r="I620" t="n">
         <v>712</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>710</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21711,7 +21161,9 @@
       <c r="I621" t="n">
         <v>702</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>710</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,7 +21202,9 @@
       <c r="I622" t="n">
         <v>696</v>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>710</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21789,7 +21243,9 @@
       <c r="I623" t="n">
         <v>693</v>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>710</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21828,7 +21284,9 @@
       <c r="I624" t="n">
         <v>699</v>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>710</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21867,7 +21325,9 @@
       <c r="I625" t="n">
         <v>694</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>710</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,7 +21366,9 @@
       <c r="I626" t="n">
         <v>692</v>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>710</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21918,6 +21380,6 @@
       <c r="M626" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-07 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-07 BackTest VALOR.xlsx
@@ -523,9 +523,11 @@
         <v>29385.5720016814</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>695</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>47066.4996016814</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>701</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,9 +601,11 @@
         <v>48416.1563016814</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>714</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -634,9 +640,11 @@
         <v>42155.7043016814</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>720</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -671,9 +679,11 @@
         <v>33875.6608016814</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>705</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -782,9 +792,11 @@
         <v>40180.1491878883</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>699</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -2077,16 +2089,18 @@
         <v>74091.44292948137</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2112,11 +2126,15 @@
         <v>72619.17532948137</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2145,11 +2163,15 @@
         <v>75951.53072948137</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +2200,15 @@
         <v>84810.31402948136</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2211,11 +2237,15 @@
         <v>84811.31402948136</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2244,11 +2274,15 @@
         <v>85350.36122948136</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2277,11 +2311,15 @@
         <v>82016.76512948137</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2310,11 +2348,15 @@
         <v>86923.10062948137</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2343,11 +2385,15 @@
         <v>101498.2440294814</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2380,7 +2426,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2413,7 +2463,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2446,7 +2500,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2479,7 +2537,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2512,7 +2574,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2545,7 +2611,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2578,7 +2648,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2611,7 +2685,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2644,7 +2722,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2677,7 +2759,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2710,7 +2796,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +2833,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2776,7 +2870,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2809,7 +2907,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2842,7 +2944,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2875,7 +2981,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3018,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2941,7 +3055,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2974,7 +3092,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3007,7 +3129,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3040,7 +3166,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3073,7 +3203,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3106,7 +3240,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3139,7 +3277,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3172,7 +3314,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3205,7 +3351,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3238,7 +3388,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3425,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3304,7 +3462,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3337,7 +3499,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3370,7 +3536,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3403,7 +3573,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3436,7 +3610,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3469,7 +3647,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3502,7 +3684,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3535,7 +3721,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3568,7 +3758,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3795,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3634,7 +3832,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3869,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +3906,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3733,7 +3943,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3980,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +4017,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3832,7 +4054,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +4091,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +4128,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3931,7 +4165,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3964,7 +4202,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3997,7 +4239,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4030,7 +4276,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4313,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4096,7 +4350,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4129,7 +4387,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +4424,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4195,7 +4461,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4228,7 +4498,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4261,7 +4535,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4294,7 +4572,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4327,7 +4609,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4360,7 +4646,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4393,7 +4683,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4426,7 +4720,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4459,7 +4757,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4794,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4525,7 +4831,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4558,7 +4868,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4905,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4942,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4657,7 +4979,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +5016,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4723,7 +5053,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4752,14 +5086,16 @@
         <v>210329.2230147371</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4785,7 +5121,7 @@
         <v>164020.6637147371</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4818,7 +5154,7 @@
         <v>164921.2215147371</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4851,7 +5187,7 @@
         <v>159731.8685167124</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4884,7 +5220,7 @@
         <v>152644.7126167124</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4917,7 +5253,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4950,7 +5286,7 @@
         <v>149991.9888421192</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5016,7 +5352,7 @@
         <v>154367.6127421192</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5049,7 +5385,7 @@
         <v>153699.7247421192</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5082,7 +5418,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5115,7 +5451,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5148,7 +5484,7 @@
         <v>145132.6595015449</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5181,7 +5517,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5214,7 +5550,7 @@
         <v>145131.6595015449</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5247,7 +5583,7 @@
         <v>148235.6911015449</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5280,7 +5616,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5313,7 +5649,7 @@
         <v>149619.4158609706</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5379,7 +5715,7 @@
         <v>151712.0785609706</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5412,7 +5748,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5445,7 +5781,7 @@
         <v>147223.3584609706</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5478,7 +5814,7 @@
         <v>146959.1084609706</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5511,7 +5847,7 @@
         <v>145901.9490609706</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5544,7 +5880,7 @@
         <v>142064.0407609706</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5577,7 +5913,7 @@
         <v>138410.4109609706</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5643,7 +5979,7 @@
         <v>143117.6287609706</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -20592,14 +20928,10 @@
         <v>24400.87395830962</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>710</v>
-      </c>
-      <c r="J607" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
@@ -20629,19 +20961,11 @@
         <v>24395.87395830962</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>710</v>
-      </c>
-      <c r="J608" t="n">
-        <v>710</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20673,14 +20997,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>710</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20709,19 +21027,11 @@
         <v>24604.45095830963</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>713</v>
-      </c>
-      <c r="J610" t="n">
-        <v>710</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20750,19 +21060,11 @@
         <v>24596.45095830963</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>713</v>
-      </c>
-      <c r="J611" t="n">
-        <v>710</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20791,19 +21093,11 @@
         <v>24599.45095830963</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>710</v>
-      </c>
-      <c r="J612" t="n">
-        <v>710</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20835,14 +21129,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>710</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20871,19 +21159,11 @@
         <v>24658.58245830963</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>713</v>
-      </c>
-      <c r="J614" t="n">
-        <v>710</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20912,19 +21192,11 @@
         <v>23934.58315830963</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>715</v>
-      </c>
-      <c r="J615" t="n">
-        <v>710</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20953,19 +21225,11 @@
         <v>23935.58315830963</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>710</v>
-      </c>
-      <c r="J616" t="n">
-        <v>710</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20997,14 +21261,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>710</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21033,19 +21291,11 @@
         <v>31884.79925830963</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>710</v>
-      </c>
-      <c r="J618" t="n">
-        <v>710</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21074,19 +21324,11 @@
         <v>31885.79925830963</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>711</v>
-      </c>
-      <c r="J619" t="n">
-        <v>710</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21115,19 +21357,11 @@
         <v>28254.24965830963</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>712</v>
-      </c>
-      <c r="J620" t="n">
-        <v>710</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21156,19 +21390,11 @@
         <v>25391.36245830963</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>702</v>
-      </c>
-      <c r="J621" t="n">
-        <v>710</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21197,19 +21423,11 @@
         <v>24864.43825830963</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>696</v>
-      </c>
-      <c r="J622" t="n">
-        <v>710</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21238,19 +21456,11 @@
         <v>31205.22966374597</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>693</v>
-      </c>
-      <c r="J623" t="n">
-        <v>710</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21279,19 +21489,11 @@
         <v>30806.73666374597</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>699</v>
-      </c>
-      <c r="J624" t="n">
-        <v>710</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21320,19 +21522,11 @@
         <v>29350.70926374597</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>694</v>
-      </c>
-      <c r="J625" t="n">
-        <v>710</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21361,19 +21555,11 @@
         <v>26708.44906374597</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>692</v>
-      </c>
-      <c r="J626" t="n">
-        <v>710</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
